--- a/Reports/novDi2_Report_Iteration_1.xlsx
+++ b/Reports/novDi2_Report_Iteration_1.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="652">
   <si>
     <t>Regression thread</t>
   </si>
@@ -1900,6 +1900,9 @@
     <t>Triggering State</t>
   </si>
   <si>
+    <t>NExec</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
@@ -1910,6 +1913,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Motorized Smoke and Fire Damper</t>
@@ -2371,7 +2377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2712,6 +2718,16 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -3453,7 +3469,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="765">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="24" fontId="25" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="28" fontId="27" numFmtId="0" xfId="0">
@@ -4148,6 +4164,549 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8078,4426 +8637,4426 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="173">
+      <c r="A1" t="s" s="248">
         <v>579</v>
       </c>
-      <c r="B1" t="s" s="173">
+      <c r="B1" t="s" s="249">
         <v>580</v>
       </c>
-      <c r="C1" t="s" s="173">
+      <c r="C1" t="s" s="250">
         <v>581</v>
       </c>
-      <c r="D1" t="s" s="173">
+      <c r="D1" t="s" s="251">
         <v>582</v>
       </c>
-      <c r="E1" t="s" s="173">
+      <c r="E1" t="s" s="252">
         <v>583</v>
       </c>
-      <c r="F1" t="s" s="173">
+      <c r="F1" t="s" s="253">
         <v>584</v>
       </c>
-      <c r="G1" t="s" s="153">
-        <v>641</v>
-      </c>
-      <c r="I1" t="s" s="153">
+      <c r="G1" t="s" s="758">
+        <v>643</v>
+      </c>
+      <c r="I1" t="s" s="759">
+        <v>646</v>
+      </c>
+      <c r="K1" t="s" s="760">
+        <v>647</v>
+      </c>
+      <c r="M1" t="s" s="761">
+        <v>648</v>
+      </c>
+      <c r="O1" t="s" s="762">
+        <v>649</v>
+      </c>
+      <c r="Q1" t="s" s="763">
+        <v>650</v>
+      </c>
+      <c r="S1" t="s" s="764">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="G2" t="s">
         <v>644</v>
       </c>
-      <c r="K1" t="s" s="153">
+      <c r="H2" t="s">
         <v>645</v>
       </c>
-      <c r="M1" t="s" s="153">
-        <v>646</v>
-      </c>
-      <c r="O1" t="s" s="153">
-        <v>647</v>
-      </c>
-      <c r="Q1" t="s" s="153">
-        <v>648</v>
-      </c>
-      <c r="S1" t="s" s="153">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="G2" t="s" s="153">
-        <v>642</v>
-      </c>
-      <c r="H2" t="s" s="153">
-        <v>643</v>
-      </c>
-      <c r="I2" t="s" s="153">
-        <v>642</v>
-      </c>
-      <c r="J2" t="s" s="153">
-        <v>643</v>
-      </c>
-      <c r="K2" t="s" s="153">
-        <v>642</v>
-      </c>
-      <c r="L2" t="s" s="153">
-        <v>643</v>
-      </c>
-      <c r="M2" t="s" s="153">
-        <v>642</v>
-      </c>
-      <c r="N2" t="s" s="153">
-        <v>643</v>
-      </c>
-      <c r="O2" t="s" s="153">
-        <v>642</v>
-      </c>
-      <c r="P2" t="s" s="153">
-        <v>643</v>
-      </c>
-      <c r="Q2" t="s" s="153">
-        <v>642</v>
-      </c>
-      <c r="R2" t="s" s="153">
-        <v>643</v>
-      </c>
-      <c r="S2" t="s" s="153">
-        <v>642</v>
-      </c>
-      <c r="T2" t="s" s="153">
-        <v>643</v>
+      <c r="I2" t="s">
+        <v>644</v>
+      </c>
+      <c r="J2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K2" t="s">
+        <v>644</v>
+      </c>
+      <c r="L2" t="s">
+        <v>645</v>
+      </c>
+      <c r="M2" t="s">
+        <v>644</v>
+      </c>
+      <c r="N2" t="s">
+        <v>645</v>
+      </c>
+      <c r="O2" t="s">
+        <v>644</v>
+      </c>
+      <c r="P2" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>644</v>
+      </c>
+      <c r="R2" t="s">
+        <v>645</v>
+      </c>
+      <c r="S2" t="s">
+        <v>644</v>
+      </c>
+      <c r="T2" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" t="s">
         <v>587</v>
       </c>
-      <c r="D4" t="s">
-        <v>585</v>
-      </c>
-      <c r="E4" t="s">
-        <v>586</v>
-      </c>
       <c r="F4" t="s">
-        <v>588</v>
-      </c>
-      <c r="G4" t="s">
+        <v>589</v>
+      </c>
+      <c r="G4" t="s" s="254">
         <v>332</v>
       </c>
-      <c r="H4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I4" t="s">
-        <v>589</v>
-      </c>
-      <c r="J4" t="s">
-        <v>589</v>
-      </c>
-      <c r="K4" t="s">
-        <v>590</v>
-      </c>
-      <c r="L4" t="s">
-        <v>590</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="H4" t="s" s="254">
+        <v>590</v>
+      </c>
+      <c r="I4" t="s" s="255">
         <v>591</v>
       </c>
-      <c r="N4" t="s">
-        <v>591</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="J4" t="s" s="255">
+        <v>590</v>
+      </c>
+      <c r="K4" t="s" s="256">
         <v>592</v>
       </c>
-      <c r="P4" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="L4" t="s" s="256">
+        <v>590</v>
+      </c>
+      <c r="M4" t="s" s="257">
         <v>593</v>
       </c>
-      <c r="R4" t="s">
-        <v>593</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="N4" t="s" s="257">
+        <v>590</v>
+      </c>
+      <c r="O4" t="s" s="258">
         <v>594</v>
       </c>
-      <c r="T4" t="s">
-        <v>594</v>
+      <c r="P4" t="s" s="258">
+        <v>590</v>
+      </c>
+      <c r="Q4" t="s" s="259">
+        <v>595</v>
+      </c>
+      <c r="R4" t="s" s="259">
+        <v>590</v>
+      </c>
+      <c r="S4" t="s" s="260">
+        <v>596</v>
+      </c>
+      <c r="T4" t="s" s="260">
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" t="s">
         <v>587</v>
       </c>
-      <c r="D5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E5" t="s">
-        <v>586</v>
-      </c>
       <c r="F5" t="s">
-        <v>595</v>
-      </c>
-      <c r="G5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G5" t="s" s="261">
         <v>332</v>
       </c>
-      <c r="H5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I5" t="s">
-        <v>589</v>
-      </c>
-      <c r="J5" t="s">
-        <v>589</v>
-      </c>
-      <c r="K5" t="s">
-        <v>590</v>
-      </c>
-      <c r="L5" t="s">
-        <v>590</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="H5" t="s" s="261">
+        <v>590</v>
+      </c>
+      <c r="I5" t="s" s="262">
         <v>591</v>
       </c>
-      <c r="N5" t="s">
-        <v>591</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="J5" t="s" s="262">
+        <v>590</v>
+      </c>
+      <c r="K5" t="s" s="263">
         <v>592</v>
       </c>
-      <c r="P5" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="L5" t="s" s="263">
+        <v>590</v>
+      </c>
+      <c r="M5" t="s" s="264">
+        <v>593</v>
+      </c>
+      <c r="N5" t="s" s="264">
+        <v>590</v>
+      </c>
+      <c r="O5" t="s" s="265">
+        <v>594</v>
+      </c>
+      <c r="P5" t="s" s="265">
+        <v>590</v>
+      </c>
+      <c r="Q5" t="s" s="266">
+        <v>598</v>
+      </c>
+      <c r="R5" t="s" s="266">
+        <v>590</v>
+      </c>
+      <c r="S5" t="s" s="267">
         <v>596</v>
       </c>
-      <c r="R5" t="s">
-        <v>596</v>
-      </c>
-      <c r="S5" t="s">
-        <v>594</v>
-      </c>
-      <c r="T5" t="s">
-        <v>594</v>
+      <c r="T5" t="s" s="267">
+        <v>590</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E6" t="s">
         <v>587</v>
       </c>
-      <c r="D6" t="s">
-        <v>585</v>
-      </c>
-      <c r="E6" t="s">
-        <v>586</v>
-      </c>
       <c r="F6" t="s">
-        <v>597</v>
-      </c>
-      <c r="G6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G6" t="s" s="268">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
-        <v>332</v>
-      </c>
-      <c r="I6" t="s">
-        <v>589</v>
-      </c>
-      <c r="J6" t="s">
-        <v>589</v>
-      </c>
-      <c r="K6" t="s">
-        <v>590</v>
-      </c>
-      <c r="L6" t="s">
-        <v>590</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="H6" t="s" s="268">
+        <v>590</v>
+      </c>
+      <c r="I6" t="s" s="269">
         <v>591</v>
       </c>
-      <c r="N6" t="s">
-        <v>591</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="J6" t="s" s="269">
+        <v>590</v>
+      </c>
+      <c r="K6" t="s" s="270">
         <v>592</v>
       </c>
-      <c r="P6" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>598</v>
-      </c>
-      <c r="R6" t="s">
-        <v>598</v>
-      </c>
-      <c r="S6" t="s">
-        <v>599</v>
-      </c>
-      <c r="T6" t="s">
-        <v>599</v>
+      <c r="L6" t="s" s="270">
+        <v>590</v>
+      </c>
+      <c r="M6" t="s" s="271">
+        <v>593</v>
+      </c>
+      <c r="N6" t="s" s="271">
+        <v>590</v>
+      </c>
+      <c r="O6" t="s" s="272">
+        <v>594</v>
+      </c>
+      <c r="P6" t="s" s="272">
+        <v>590</v>
+      </c>
+      <c r="Q6" t="s" s="273">
+        <v>600</v>
+      </c>
+      <c r="R6" t="s" s="273">
+        <v>590</v>
+      </c>
+      <c r="S6" t="s" s="274">
+        <v>601</v>
+      </c>
+      <c r="T6" t="s" s="274">
+        <v>590</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" t="s">
         <v>587</v>
       </c>
-      <c r="D7" t="s">
-        <v>585</v>
-      </c>
-      <c r="E7" t="s">
-        <v>586</v>
-      </c>
       <c r="F7" t="s">
-        <v>586</v>
-      </c>
-      <c r="G7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G7" t="s" s="275">
         <v>332</v>
       </c>
-      <c r="H7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I7" t="s">
-        <v>589</v>
-      </c>
-      <c r="J7" t="s">
-        <v>589</v>
-      </c>
-      <c r="K7" t="s">
-        <v>590</v>
-      </c>
-      <c r="L7" t="s">
-        <v>590</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="H7" t="s" s="275">
+        <v>590</v>
+      </c>
+      <c r="I7" t="s" s="276">
         <v>591</v>
       </c>
-      <c r="N7" t="s">
-        <v>591</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="J7" t="s" s="276">
+        <v>590</v>
+      </c>
+      <c r="K7" t="s" s="277">
         <v>592</v>
       </c>
-      <c r="P7" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>600</v>
-      </c>
-      <c r="R7" t="s">
-        <v>600</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="L7" t="s" s="277">
+        <v>590</v>
+      </c>
+      <c r="M7" t="s" s="278">
+        <v>593</v>
+      </c>
+      <c r="N7" t="s" s="278">
+        <v>590</v>
+      </c>
+      <c r="O7" t="s" s="279">
         <v>594</v>
       </c>
-      <c r="T7" t="s">
-        <v>594</v>
+      <c r="P7" t="s" s="279">
+        <v>590</v>
+      </c>
+      <c r="Q7" t="s" s="280">
+        <v>602</v>
+      </c>
+      <c r="R7" t="s" s="280">
+        <v>590</v>
+      </c>
+      <c r="S7" t="s" s="281">
+        <v>596</v>
+      </c>
+      <c r="T7" t="s" s="281">
+        <v>590</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E9" t="s">
         <v>587</v>
       </c>
-      <c r="D9" t="s">
-        <v>601</v>
-      </c>
-      <c r="E9" t="s">
-        <v>586</v>
-      </c>
       <c r="F9" t="s">
-        <v>588</v>
-      </c>
-      <c r="G9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G9" t="s" s="282">
         <v>332</v>
       </c>
-      <c r="H9" t="s">
-        <v>332</v>
-      </c>
-      <c r="I9" t="s">
-        <v>589</v>
-      </c>
-      <c r="J9" t="s">
-        <v>589</v>
-      </c>
-      <c r="K9" t="s">
-        <v>590</v>
-      </c>
-      <c r="L9" t="s">
-        <v>590</v>
-      </c>
-      <c r="M9" t="s">
-        <v>602</v>
-      </c>
-      <c r="N9" t="s">
-        <v>602</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="H9" t="s" s="282">
+        <v>590</v>
+      </c>
+      <c r="I9" t="s" s="283">
+        <v>591</v>
+      </c>
+      <c r="J9" t="s" s="283">
+        <v>590</v>
+      </c>
+      <c r="K9" t="s" s="284">
         <v>592</v>
       </c>
-      <c r="P9" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>593</v>
-      </c>
-      <c r="R9" t="s">
-        <v>593</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="L9" t="s" s="284">
+        <v>590</v>
+      </c>
+      <c r="M9" t="s" s="285">
+        <v>604</v>
+      </c>
+      <c r="N9" t="s" s="285">
+        <v>590</v>
+      </c>
+      <c r="O9" t="s" s="286">
         <v>594</v>
       </c>
-      <c r="T9" t="s">
-        <v>594</v>
+      <c r="P9" t="s" s="286">
+        <v>590</v>
+      </c>
+      <c r="Q9" t="s" s="287">
+        <v>595</v>
+      </c>
+      <c r="R9" t="s" s="287">
+        <v>590</v>
+      </c>
+      <c r="S9" t="s" s="288">
+        <v>596</v>
+      </c>
+      <c r="T9" t="s" s="288">
+        <v>590</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E10" t="s">
         <v>587</v>
       </c>
-      <c r="D10" t="s">
-        <v>601</v>
-      </c>
-      <c r="E10" t="s">
-        <v>586</v>
-      </c>
       <c r="F10" t="s">
-        <v>595</v>
-      </c>
-      <c r="G10" t="s">
+        <v>597</v>
+      </c>
+      <c r="G10" t="s" s="289">
         <v>332</v>
       </c>
-      <c r="H10" t="s">
-        <v>332</v>
-      </c>
-      <c r="I10" t="s">
-        <v>589</v>
-      </c>
-      <c r="J10" t="s">
-        <v>589</v>
-      </c>
-      <c r="K10" t="s">
-        <v>590</v>
-      </c>
-      <c r="L10" t="s">
-        <v>590</v>
-      </c>
-      <c r="M10" t="s">
-        <v>602</v>
-      </c>
-      <c r="N10" t="s">
-        <v>602</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="H10" t="s" s="289">
+        <v>590</v>
+      </c>
+      <c r="I10" t="s" s="290">
+        <v>591</v>
+      </c>
+      <c r="J10" t="s" s="290">
+        <v>590</v>
+      </c>
+      <c r="K10" t="s" s="291">
         <v>592</v>
       </c>
-      <c r="P10" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="L10" t="s" s="291">
+        <v>590</v>
+      </c>
+      <c r="M10" t="s" s="292">
+        <v>604</v>
+      </c>
+      <c r="N10" t="s" s="292">
+        <v>590</v>
+      </c>
+      <c r="O10" t="s" s="293">
+        <v>594</v>
+      </c>
+      <c r="P10" t="s" s="293">
+        <v>590</v>
+      </c>
+      <c r="Q10" t="s" s="294">
+        <v>598</v>
+      </c>
+      <c r="R10" t="s" s="294">
+        <v>590</v>
+      </c>
+      <c r="S10" t="s" s="295">
         <v>596</v>
       </c>
-      <c r="R10" t="s">
-        <v>596</v>
-      </c>
-      <c r="S10" t="s">
-        <v>594</v>
-      </c>
-      <c r="T10" t="s">
-        <v>594</v>
+      <c r="T10" t="s" s="295">
+        <v>590</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C11" t="s">
+        <v>588</v>
+      </c>
+      <c r="D11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E11" t="s">
         <v>587</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>599</v>
+      </c>
+      <c r="G11" t="s" s="296">
+        <v>332</v>
+      </c>
+      <c r="H11" t="s" s="296">
+        <v>590</v>
+      </c>
+      <c r="I11" t="s" s="297">
+        <v>591</v>
+      </c>
+      <c r="J11" t="s" s="297">
+        <v>590</v>
+      </c>
+      <c r="K11" t="s" s="298">
+        <v>592</v>
+      </c>
+      <c r="L11" t="s" s="298">
+        <v>590</v>
+      </c>
+      <c r="M11" t="s" s="299">
+        <v>604</v>
+      </c>
+      <c r="N11" t="s" s="299">
+        <v>590</v>
+      </c>
+      <c r="O11" t="s" s="300">
+        <v>594</v>
+      </c>
+      <c r="P11" t="s" s="300">
+        <v>590</v>
+      </c>
+      <c r="Q11" t="s" s="301">
+        <v>600</v>
+      </c>
+      <c r="R11" t="s" s="301">
+        <v>590</v>
+      </c>
+      <c r="S11" t="s" s="302">
         <v>601</v>
       </c>
-      <c r="E11" t="s">
-        <v>586</v>
-      </c>
-      <c r="F11" t="s">
-        <v>597</v>
-      </c>
-      <c r="G11" t="s">
-        <v>332</v>
-      </c>
-      <c r="H11" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11" t="s">
-        <v>589</v>
-      </c>
-      <c r="J11" t="s">
-        <v>589</v>
-      </c>
-      <c r="K11" t="s">
-        <v>590</v>
-      </c>
-      <c r="L11" t="s">
-        <v>590</v>
-      </c>
-      <c r="M11" t="s">
-        <v>602</v>
-      </c>
-      <c r="N11" t="s">
-        <v>602</v>
-      </c>
-      <c r="O11" t="s">
-        <v>592</v>
-      </c>
-      <c r="P11" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>598</v>
-      </c>
-      <c r="R11" t="s">
-        <v>598</v>
-      </c>
-      <c r="S11" t="s">
-        <v>599</v>
-      </c>
-      <c r="T11" t="s">
-        <v>599</v>
+      <c r="T11" t="s" s="302">
+        <v>590</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D12" t="s">
+        <v>603</v>
+      </c>
+      <c r="E12" t="s">
         <v>587</v>
       </c>
-      <c r="D12" t="s">
-        <v>601</v>
-      </c>
-      <c r="E12" t="s">
-        <v>586</v>
-      </c>
       <c r="F12" t="s">
-        <v>586</v>
-      </c>
-      <c r="G12" t="s">
+        <v>587</v>
+      </c>
+      <c r="G12" t="s" s="303">
         <v>332</v>
       </c>
-      <c r="H12" t="s">
-        <v>332</v>
-      </c>
-      <c r="I12" t="s">
-        <v>589</v>
-      </c>
-      <c r="J12" t="s">
-        <v>589</v>
-      </c>
-      <c r="K12" t="s">
-        <v>590</v>
-      </c>
-      <c r="L12" t="s">
-        <v>590</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="H12" t="s" s="303">
+        <v>590</v>
+      </c>
+      <c r="I12" t="s" s="304">
+        <v>591</v>
+      </c>
+      <c r="J12" t="s" s="304">
+        <v>590</v>
+      </c>
+      <c r="K12" t="s" s="305">
+        <v>592</v>
+      </c>
+      <c r="L12" t="s" s="305">
+        <v>590</v>
+      </c>
+      <c r="M12" t="s" s="306">
+        <v>604</v>
+      </c>
+      <c r="N12" t="s" s="306">
+        <v>590</v>
+      </c>
+      <c r="O12" t="s" s="307">
+        <v>594</v>
+      </c>
+      <c r="P12" t="s" s="307">
+        <v>590</v>
+      </c>
+      <c r="Q12" t="s" s="308">
         <v>602</v>
       </c>
-      <c r="N12" t="s">
-        <v>602</v>
-      </c>
-      <c r="O12" t="s">
-        <v>592</v>
-      </c>
-      <c r="P12" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>600</v>
-      </c>
-      <c r="R12" t="s">
-        <v>600</v>
-      </c>
-      <c r="S12" t="s">
-        <v>594</v>
-      </c>
-      <c r="T12" t="s">
-        <v>594</v>
+      <c r="R12" t="s" s="308">
+        <v>590</v>
+      </c>
+      <c r="S12" t="s" s="309">
+        <v>596</v>
+      </c>
+      <c r="T12" t="s" s="309">
+        <v>590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E14" t="s">
         <v>587</v>
       </c>
-      <c r="D14" t="s">
-        <v>603</v>
-      </c>
-      <c r="E14" t="s">
-        <v>586</v>
-      </c>
       <c r="F14" t="s">
-        <v>588</v>
-      </c>
-      <c r="G14" t="s">
+        <v>589</v>
+      </c>
+      <c r="G14" t="s" s="310">
         <v>332</v>
       </c>
-      <c r="H14" t="s">
-        <v>332</v>
-      </c>
-      <c r="I14" t="s">
-        <v>589</v>
-      </c>
-      <c r="J14" t="s">
-        <v>589</v>
-      </c>
-      <c r="K14" t="s">
-        <v>590</v>
-      </c>
-      <c r="L14" t="s">
-        <v>590</v>
-      </c>
-      <c r="M14" t="s">
-        <v>604</v>
-      </c>
-      <c r="N14" t="s">
-        <v>604</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="H14" t="s" s="310">
+        <v>590</v>
+      </c>
+      <c r="I14" t="s" s="311">
+        <v>591</v>
+      </c>
+      <c r="J14" t="s" s="311">
+        <v>590</v>
+      </c>
+      <c r="K14" t="s" s="312">
         <v>592</v>
       </c>
-      <c r="P14" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>593</v>
-      </c>
-      <c r="R14" t="s">
-        <v>593</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="L14" t="s" s="312">
+        <v>590</v>
+      </c>
+      <c r="M14" t="s" s="313">
+        <v>606</v>
+      </c>
+      <c r="N14" t="s" s="313">
+        <v>590</v>
+      </c>
+      <c r="O14" t="s" s="314">
         <v>594</v>
       </c>
-      <c r="T14" t="s">
-        <v>594</v>
+      <c r="P14" t="s" s="314">
+        <v>590</v>
+      </c>
+      <c r="Q14" t="s" s="315">
+        <v>595</v>
+      </c>
+      <c r="R14" t="s" s="315">
+        <v>590</v>
+      </c>
+      <c r="S14" t="s" s="316">
+        <v>596</v>
+      </c>
+      <c r="T14" t="s" s="316">
+        <v>590</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C15" t="s">
+        <v>588</v>
+      </c>
+      <c r="D15" t="s">
+        <v>605</v>
+      </c>
+      <c r="E15" t="s">
         <v>587</v>
       </c>
-      <c r="D15" t="s">
-        <v>603</v>
-      </c>
-      <c r="E15" t="s">
-        <v>586</v>
-      </c>
       <c r="F15" t="s">
-        <v>595</v>
-      </c>
-      <c r="G15" t="s">
+        <v>597</v>
+      </c>
+      <c r="G15" t="s" s="317">
         <v>332</v>
       </c>
-      <c r="H15" t="s">
-        <v>332</v>
-      </c>
-      <c r="I15" t="s">
-        <v>589</v>
-      </c>
-      <c r="J15" t="s">
-        <v>589</v>
-      </c>
-      <c r="K15" t="s">
-        <v>590</v>
-      </c>
-      <c r="L15" t="s">
-        <v>590</v>
-      </c>
-      <c r="M15" t="s">
-        <v>604</v>
-      </c>
-      <c r="N15" t="s">
-        <v>604</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="H15" t="s" s="317">
+        <v>590</v>
+      </c>
+      <c r="I15" t="s" s="318">
+        <v>591</v>
+      </c>
+      <c r="J15" t="s" s="318">
+        <v>590</v>
+      </c>
+      <c r="K15" t="s" s="319">
         <v>592</v>
       </c>
-      <c r="P15" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="L15" t="s" s="319">
+        <v>590</v>
+      </c>
+      <c r="M15" t="s" s="320">
+        <v>606</v>
+      </c>
+      <c r="N15" t="s" s="320">
+        <v>590</v>
+      </c>
+      <c r="O15" t="s" s="321">
+        <v>594</v>
+      </c>
+      <c r="P15" t="s" s="321">
+        <v>590</v>
+      </c>
+      <c r="Q15" t="s" s="322">
+        <v>598</v>
+      </c>
+      <c r="R15" t="s" s="322">
+        <v>590</v>
+      </c>
+      <c r="S15" t="s" s="323">
         <v>596</v>
       </c>
-      <c r="R15" t="s">
-        <v>596</v>
-      </c>
-      <c r="S15" t="s">
-        <v>594</v>
-      </c>
-      <c r="T15" t="s">
-        <v>594</v>
+      <c r="T15" t="s" s="323">
+        <v>590</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C16" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" t="s">
+        <v>605</v>
+      </c>
+      <c r="E16" t="s">
         <v>587</v>
       </c>
-      <c r="D16" t="s">
-        <v>603</v>
-      </c>
-      <c r="E16" t="s">
-        <v>586</v>
-      </c>
       <c r="F16" t="s">
-        <v>597</v>
-      </c>
-      <c r="G16" t="s">
+        <v>599</v>
+      </c>
+      <c r="G16" t="s" s="324">
         <v>332</v>
       </c>
-      <c r="H16" t="s">
-        <v>332</v>
-      </c>
-      <c r="I16" t="s">
-        <v>589</v>
-      </c>
-      <c r="J16" t="s">
-        <v>589</v>
-      </c>
-      <c r="K16" t="s">
-        <v>590</v>
-      </c>
-      <c r="L16" t="s">
-        <v>590</v>
-      </c>
-      <c r="M16" t="s">
-        <v>604</v>
-      </c>
-      <c r="N16" t="s">
-        <v>604</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="H16" t="s" s="324">
+        <v>590</v>
+      </c>
+      <c r="I16" t="s" s="325">
+        <v>591</v>
+      </c>
+      <c r="J16" t="s" s="325">
+        <v>590</v>
+      </c>
+      <c r="K16" t="s" s="326">
         <v>592</v>
       </c>
-      <c r="P16" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>598</v>
-      </c>
-      <c r="R16" t="s">
-        <v>598</v>
-      </c>
-      <c r="S16" t="s">
-        <v>599</v>
-      </c>
-      <c r="T16" t="s">
-        <v>599</v>
+      <c r="L16" t="s" s="326">
+        <v>590</v>
+      </c>
+      <c r="M16" t="s" s="327">
+        <v>606</v>
+      </c>
+      <c r="N16" t="s" s="327">
+        <v>590</v>
+      </c>
+      <c r="O16" t="s" s="328">
+        <v>594</v>
+      </c>
+      <c r="P16" t="s" s="328">
+        <v>590</v>
+      </c>
+      <c r="Q16" t="s" s="329">
+        <v>600</v>
+      </c>
+      <c r="R16" t="s" s="329">
+        <v>590</v>
+      </c>
+      <c r="S16" t="s" s="330">
+        <v>601</v>
+      </c>
+      <c r="T16" t="s" s="330">
+        <v>590</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C17" t="s">
+        <v>588</v>
+      </c>
+      <c r="D17" t="s">
+        <v>605</v>
+      </c>
+      <c r="E17" t="s">
         <v>587</v>
       </c>
-      <c r="D17" t="s">
-        <v>603</v>
-      </c>
-      <c r="E17" t="s">
-        <v>586</v>
-      </c>
       <c r="F17" t="s">
-        <v>586</v>
-      </c>
-      <c r="G17" t="s">
+        <v>587</v>
+      </c>
+      <c r="G17" t="s" s="331">
         <v>332</v>
       </c>
-      <c r="H17" t="s">
-        <v>332</v>
-      </c>
-      <c r="I17" t="s">
-        <v>589</v>
-      </c>
-      <c r="J17" t="s">
-        <v>589</v>
-      </c>
-      <c r="K17" t="s">
-        <v>590</v>
-      </c>
-      <c r="L17" t="s">
-        <v>590</v>
-      </c>
-      <c r="M17" t="s">
-        <v>604</v>
-      </c>
-      <c r="N17" t="s">
-        <v>604</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="H17" t="s" s="331">
+        <v>590</v>
+      </c>
+      <c r="I17" t="s" s="332">
+        <v>591</v>
+      </c>
+      <c r="J17" t="s" s="332">
+        <v>590</v>
+      </c>
+      <c r="K17" t="s" s="333">
         <v>592</v>
       </c>
-      <c r="P17" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>600</v>
-      </c>
-      <c r="R17" t="s">
-        <v>600</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="L17" t="s" s="333">
+        <v>590</v>
+      </c>
+      <c r="M17" t="s" s="334">
+        <v>606</v>
+      </c>
+      <c r="N17" t="s" s="334">
+        <v>590</v>
+      </c>
+      <c r="O17" t="s" s="335">
         <v>594</v>
       </c>
-      <c r="T17" t="s">
-        <v>594</v>
+      <c r="P17" t="s" s="335">
+        <v>590</v>
+      </c>
+      <c r="Q17" t="s" s="336">
+        <v>602</v>
+      </c>
+      <c r="R17" t="s" s="336">
+        <v>590</v>
+      </c>
+      <c r="S17" t="s" s="337">
+        <v>596</v>
+      </c>
+      <c r="T17" t="s" s="337">
+        <v>590</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C19" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" t="s">
+        <v>607</v>
+      </c>
+      <c r="E19" t="s">
         <v>587</v>
       </c>
-      <c r="D19" t="s">
-        <v>605</v>
-      </c>
-      <c r="E19" t="s">
-        <v>586</v>
-      </c>
       <c r="F19" t="s">
-        <v>588</v>
-      </c>
-      <c r="G19" t="s">
+        <v>589</v>
+      </c>
+      <c r="G19" t="s" s="338">
         <v>332</v>
       </c>
-      <c r="H19" t="s">
-        <v>332</v>
-      </c>
-      <c r="I19" t="s">
-        <v>589</v>
-      </c>
-      <c r="J19" t="s">
-        <v>589</v>
-      </c>
-      <c r="K19" t="s">
-        <v>590</v>
-      </c>
-      <c r="L19" t="s">
-        <v>590</v>
-      </c>
-      <c r="M19" t="s">
-        <v>606</v>
-      </c>
-      <c r="N19" t="s">
-        <v>606</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="H19" t="s" s="338">
+        <v>590</v>
+      </c>
+      <c r="I19" t="s" s="339">
+        <v>591</v>
+      </c>
+      <c r="J19" t="s" s="339">
+        <v>590</v>
+      </c>
+      <c r="K19" t="s" s="340">
         <v>592</v>
       </c>
-      <c r="P19" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>593</v>
-      </c>
-      <c r="R19" t="s">
-        <v>593</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="L19" t="s" s="340">
+        <v>590</v>
+      </c>
+      <c r="M19" t="s" s="341">
+        <v>608</v>
+      </c>
+      <c r="N19" t="s" s="341">
+        <v>590</v>
+      </c>
+      <c r="O19" t="s" s="342">
         <v>594</v>
       </c>
-      <c r="T19" t="s">
-        <v>594</v>
+      <c r="P19" t="s" s="342">
+        <v>590</v>
+      </c>
+      <c r="Q19" t="s" s="343">
+        <v>595</v>
+      </c>
+      <c r="R19" t="s" s="343">
+        <v>590</v>
+      </c>
+      <c r="S19" t="s" s="344">
+        <v>596</v>
+      </c>
+      <c r="T19" t="s" s="344">
+        <v>590</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C20" t="s">
+        <v>588</v>
+      </c>
+      <c r="D20" t="s">
+        <v>607</v>
+      </c>
+      <c r="E20" t="s">
         <v>587</v>
       </c>
-      <c r="D20" t="s">
-        <v>605</v>
-      </c>
-      <c r="E20" t="s">
-        <v>586</v>
-      </c>
       <c r="F20" t="s">
-        <v>595</v>
-      </c>
-      <c r="G20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G20" t="s" s="345">
         <v>332</v>
       </c>
-      <c r="H20" t="s">
-        <v>332</v>
-      </c>
-      <c r="I20" t="s">
-        <v>589</v>
-      </c>
-      <c r="J20" t="s">
-        <v>589</v>
-      </c>
-      <c r="K20" t="s">
-        <v>590</v>
-      </c>
-      <c r="L20" t="s">
-        <v>590</v>
-      </c>
-      <c r="M20" t="s">
-        <v>606</v>
-      </c>
-      <c r="N20" t="s">
-        <v>606</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="H20" t="s" s="345">
+        <v>590</v>
+      </c>
+      <c r="I20" t="s" s="346">
+        <v>591</v>
+      </c>
+      <c r="J20" t="s" s="346">
+        <v>590</v>
+      </c>
+      <c r="K20" t="s" s="347">
         <v>592</v>
       </c>
-      <c r="P20" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="L20" t="s" s="347">
+        <v>590</v>
+      </c>
+      <c r="M20" t="s" s="348">
+        <v>608</v>
+      </c>
+      <c r="N20" t="s" s="348">
+        <v>590</v>
+      </c>
+      <c r="O20" t="s" s="349">
+        <v>594</v>
+      </c>
+      <c r="P20" t="s" s="349">
+        <v>590</v>
+      </c>
+      <c r="Q20" t="s" s="350">
+        <v>598</v>
+      </c>
+      <c r="R20" t="s" s="350">
+        <v>590</v>
+      </c>
+      <c r="S20" t="s" s="351">
         <v>596</v>
       </c>
-      <c r="R20" t="s">
-        <v>596</v>
-      </c>
-      <c r="S20" t="s">
-        <v>594</v>
-      </c>
-      <c r="T20" t="s">
-        <v>594</v>
+      <c r="T20" t="s" s="351">
+        <v>590</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D21" t="s">
+        <v>607</v>
+      </c>
+      <c r="E21" t="s">
         <v>587</v>
       </c>
-      <c r="D21" t="s">
-        <v>605</v>
-      </c>
-      <c r="E21" t="s">
-        <v>586</v>
-      </c>
       <c r="F21" t="s">
-        <v>597</v>
-      </c>
-      <c r="G21" t="s">
+        <v>599</v>
+      </c>
+      <c r="G21" t="s" s="352">
         <v>332</v>
       </c>
-      <c r="H21" t="s">
-        <v>332</v>
-      </c>
-      <c r="I21" t="s">
-        <v>589</v>
-      </c>
-      <c r="J21" t="s">
-        <v>589</v>
-      </c>
-      <c r="K21" t="s">
-        <v>590</v>
-      </c>
-      <c r="L21" t="s">
-        <v>590</v>
-      </c>
-      <c r="M21" t="s">
-        <v>606</v>
-      </c>
-      <c r="N21" t="s">
-        <v>606</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="H21" t="s" s="352">
+        <v>590</v>
+      </c>
+      <c r="I21" t="s" s="353">
+        <v>591</v>
+      </c>
+      <c r="J21" t="s" s="353">
+        <v>590</v>
+      </c>
+      <c r="K21" t="s" s="354">
         <v>592</v>
       </c>
-      <c r="P21" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>598</v>
-      </c>
-      <c r="R21" t="s">
-        <v>598</v>
-      </c>
-      <c r="S21" t="s">
-        <v>599</v>
-      </c>
-      <c r="T21" t="s">
-        <v>599</v>
+      <c r="L21" t="s" s="354">
+        <v>590</v>
+      </c>
+      <c r="M21" t="s" s="355">
+        <v>608</v>
+      </c>
+      <c r="N21" t="s" s="355">
+        <v>590</v>
+      </c>
+      <c r="O21" t="s" s="356">
+        <v>594</v>
+      </c>
+      <c r="P21" t="s" s="356">
+        <v>590</v>
+      </c>
+      <c r="Q21" t="s" s="357">
+        <v>600</v>
+      </c>
+      <c r="R21" t="s" s="357">
+        <v>590</v>
+      </c>
+      <c r="S21" t="s" s="358">
+        <v>601</v>
+      </c>
+      <c r="T21" t="s" s="358">
+        <v>590</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C22" t="s">
+        <v>588</v>
+      </c>
+      <c r="D22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E22" t="s">
         <v>587</v>
       </c>
-      <c r="D22" t="s">
-        <v>605</v>
-      </c>
-      <c r="E22" t="s">
-        <v>586</v>
-      </c>
       <c r="F22" t="s">
-        <v>586</v>
-      </c>
-      <c r="G22" t="s">
+        <v>587</v>
+      </c>
+      <c r="G22" t="s" s="359">
         <v>332</v>
       </c>
-      <c r="H22" t="s">
-        <v>332</v>
-      </c>
-      <c r="I22" t="s">
-        <v>589</v>
-      </c>
-      <c r="J22" t="s">
-        <v>589</v>
-      </c>
-      <c r="K22" t="s">
-        <v>590</v>
-      </c>
-      <c r="L22" t="s">
-        <v>590</v>
-      </c>
-      <c r="M22" t="s">
-        <v>606</v>
-      </c>
-      <c r="N22" t="s">
-        <v>606</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="H22" t="s" s="359">
+        <v>590</v>
+      </c>
+      <c r="I22" t="s" s="360">
+        <v>591</v>
+      </c>
+      <c r="J22" t="s" s="360">
+        <v>590</v>
+      </c>
+      <c r="K22" t="s" s="361">
         <v>592</v>
       </c>
-      <c r="P22" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>600</v>
-      </c>
-      <c r="R22" t="s">
-        <v>600</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="L22" t="s" s="361">
+        <v>590</v>
+      </c>
+      <c r="M22" t="s" s="362">
+        <v>608</v>
+      </c>
+      <c r="N22" t="s" s="362">
+        <v>590</v>
+      </c>
+      <c r="O22" t="s" s="363">
         <v>594</v>
       </c>
-      <c r="T22" t="s">
-        <v>594</v>
+      <c r="P22" t="s" s="363">
+        <v>590</v>
+      </c>
+      <c r="Q22" t="s" s="364">
+        <v>602</v>
+      </c>
+      <c r="R22" t="s" s="364">
+        <v>590</v>
+      </c>
+      <c r="S22" t="s" s="365">
+        <v>596</v>
+      </c>
+      <c r="T22" t="s" s="365">
+        <v>590</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C24" t="s">
+        <v>588</v>
+      </c>
+      <c r="D24" t="s">
+        <v>609</v>
+      </c>
+      <c r="E24" t="s">
         <v>587</v>
       </c>
-      <c r="D24" t="s">
-        <v>607</v>
-      </c>
-      <c r="E24" t="s">
-        <v>586</v>
-      </c>
       <c r="F24" t="s">
-        <v>588</v>
-      </c>
-      <c r="G24" t="s">
+        <v>589</v>
+      </c>
+      <c r="G24" t="s" s="366">
         <v>332</v>
       </c>
-      <c r="H24" t="s">
-        <v>332</v>
-      </c>
-      <c r="I24" t="s">
-        <v>589</v>
-      </c>
-      <c r="J24" t="s">
-        <v>589</v>
-      </c>
-      <c r="K24" t="s">
-        <v>590</v>
-      </c>
-      <c r="L24" t="s">
-        <v>590</v>
-      </c>
-      <c r="M24" t="s">
-        <v>608</v>
-      </c>
-      <c r="N24" t="s">
-        <v>608</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="H24" t="s" s="366">
+        <v>590</v>
+      </c>
+      <c r="I24" t="s" s="367">
+        <v>591</v>
+      </c>
+      <c r="J24" t="s" s="367">
+        <v>590</v>
+      </c>
+      <c r="K24" t="s" s="368">
         <v>592</v>
       </c>
-      <c r="P24" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>593</v>
-      </c>
-      <c r="R24" t="s">
-        <v>593</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="L24" t="s" s="368">
+        <v>590</v>
+      </c>
+      <c r="M24" t="s" s="369">
+        <v>610</v>
+      </c>
+      <c r="N24" t="s" s="369">
+        <v>590</v>
+      </c>
+      <c r="O24" t="s" s="370">
         <v>594</v>
       </c>
-      <c r="T24" t="s">
-        <v>594</v>
+      <c r="P24" t="s" s="370">
+        <v>590</v>
+      </c>
+      <c r="Q24" t="s" s="371">
+        <v>595</v>
+      </c>
+      <c r="R24" t="s" s="371">
+        <v>590</v>
+      </c>
+      <c r="S24" t="s" s="372">
+        <v>596</v>
+      </c>
+      <c r="T24" t="s" s="372">
+        <v>590</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C25" t="s">
+        <v>588</v>
+      </c>
+      <c r="D25" t="s">
+        <v>609</v>
+      </c>
+      <c r="E25" t="s">
         <v>587</v>
       </c>
-      <c r="D25" t="s">
-        <v>607</v>
-      </c>
-      <c r="E25" t="s">
-        <v>586</v>
-      </c>
       <c r="F25" t="s">
-        <v>595</v>
-      </c>
-      <c r="G25" t="s">
+        <v>597</v>
+      </c>
+      <c r="G25" t="s" s="373">
         <v>332</v>
       </c>
-      <c r="H25" t="s">
-        <v>332</v>
-      </c>
-      <c r="I25" t="s">
-        <v>589</v>
-      </c>
-      <c r="J25" t="s">
-        <v>589</v>
-      </c>
-      <c r="K25" t="s">
-        <v>590</v>
-      </c>
-      <c r="L25" t="s">
-        <v>590</v>
-      </c>
-      <c r="M25" t="s">
-        <v>608</v>
-      </c>
-      <c r="N25" t="s">
-        <v>608</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="H25" t="s" s="373">
+        <v>590</v>
+      </c>
+      <c r="I25" t="s" s="374">
+        <v>591</v>
+      </c>
+      <c r="J25" t="s" s="374">
+        <v>590</v>
+      </c>
+      <c r="K25" t="s" s="375">
         <v>592</v>
       </c>
-      <c r="P25" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="L25" t="s" s="375">
+        <v>590</v>
+      </c>
+      <c r="M25" t="s" s="376">
+        <v>610</v>
+      </c>
+      <c r="N25" t="s" s="376">
+        <v>590</v>
+      </c>
+      <c r="O25" t="s" s="377">
+        <v>594</v>
+      </c>
+      <c r="P25" t="s" s="377">
+        <v>590</v>
+      </c>
+      <c r="Q25" t="s" s="378">
+        <v>598</v>
+      </c>
+      <c r="R25" t="s" s="378">
+        <v>590</v>
+      </c>
+      <c r="S25" t="s" s="379">
         <v>596</v>
       </c>
-      <c r="R25" t="s">
-        <v>596</v>
-      </c>
-      <c r="S25" t="s">
-        <v>594</v>
-      </c>
-      <c r="T25" t="s">
-        <v>594</v>
+      <c r="T25" t="s" s="379">
+        <v>590</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D26" t="s">
+        <v>609</v>
+      </c>
+      <c r="E26" t="s">
         <v>587</v>
       </c>
-      <c r="D26" t="s">
-        <v>607</v>
-      </c>
-      <c r="E26" t="s">
-        <v>586</v>
-      </c>
       <c r="F26" t="s">
-        <v>597</v>
-      </c>
-      <c r="G26" t="s">
+        <v>599</v>
+      </c>
+      <c r="G26" t="s" s="380">
         <v>332</v>
       </c>
-      <c r="H26" t="s">
-        <v>332</v>
-      </c>
-      <c r="I26" t="s">
-        <v>589</v>
-      </c>
-      <c r="J26" t="s">
-        <v>589</v>
-      </c>
-      <c r="K26" t="s">
-        <v>590</v>
-      </c>
-      <c r="L26" t="s">
-        <v>590</v>
-      </c>
-      <c r="M26" t="s">
-        <v>608</v>
-      </c>
-      <c r="N26" t="s">
-        <v>608</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="H26" t="s" s="380">
+        <v>590</v>
+      </c>
+      <c r="I26" t="s" s="381">
+        <v>591</v>
+      </c>
+      <c r="J26" t="s" s="381">
+        <v>590</v>
+      </c>
+      <c r="K26" t="s" s="382">
         <v>592</v>
       </c>
-      <c r="P26" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>598</v>
-      </c>
-      <c r="R26" t="s">
-        <v>598</v>
-      </c>
-      <c r="S26" t="s">
-        <v>599</v>
-      </c>
-      <c r="T26" t="s">
-        <v>599</v>
+      <c r="L26" t="s" s="382">
+        <v>590</v>
+      </c>
+      <c r="M26" t="s" s="383">
+        <v>610</v>
+      </c>
+      <c r="N26" t="s" s="383">
+        <v>590</v>
+      </c>
+      <c r="O26" t="s" s="384">
+        <v>594</v>
+      </c>
+      <c r="P26" t="s" s="384">
+        <v>590</v>
+      </c>
+      <c r="Q26" t="s" s="385">
+        <v>600</v>
+      </c>
+      <c r="R26" t="s" s="385">
+        <v>590</v>
+      </c>
+      <c r="S26" t="s" s="386">
+        <v>601</v>
+      </c>
+      <c r="T26" t="s" s="386">
+        <v>590</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C27" t="s">
+        <v>588</v>
+      </c>
+      <c r="D27" t="s">
+        <v>609</v>
+      </c>
+      <c r="E27" t="s">
         <v>587</v>
       </c>
-      <c r="D27" t="s">
-        <v>607</v>
-      </c>
-      <c r="E27" t="s">
-        <v>586</v>
-      </c>
       <c r="F27" t="s">
-        <v>586</v>
-      </c>
-      <c r="G27" t="s">
+        <v>587</v>
+      </c>
+      <c r="G27" t="s" s="387">
         <v>332</v>
       </c>
-      <c r="H27" t="s">
-        <v>332</v>
-      </c>
-      <c r="I27" t="s">
-        <v>589</v>
-      </c>
-      <c r="J27" t="s">
-        <v>589</v>
-      </c>
-      <c r="K27" t="s">
-        <v>590</v>
-      </c>
-      <c r="L27" t="s">
-        <v>590</v>
-      </c>
-      <c r="M27" t="s">
-        <v>608</v>
-      </c>
-      <c r="N27" t="s">
-        <v>608</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="H27" t="s" s="387">
+        <v>590</v>
+      </c>
+      <c r="I27" t="s" s="388">
+        <v>591</v>
+      </c>
+      <c r="J27" t="s" s="388">
+        <v>590</v>
+      </c>
+      <c r="K27" t="s" s="389">
         <v>592</v>
       </c>
-      <c r="P27" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>600</v>
-      </c>
-      <c r="R27" t="s">
-        <v>600</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="L27" t="s" s="389">
+        <v>590</v>
+      </c>
+      <c r="M27" t="s" s="390">
+        <v>610</v>
+      </c>
+      <c r="N27" t="s" s="390">
+        <v>590</v>
+      </c>
+      <c r="O27" t="s" s="391">
         <v>594</v>
       </c>
-      <c r="T27" t="s">
-        <v>594</v>
+      <c r="P27" t="s" s="391">
+        <v>590</v>
+      </c>
+      <c r="Q27" t="s" s="392">
+        <v>602</v>
+      </c>
+      <c r="R27" t="s" s="392">
+        <v>590</v>
+      </c>
+      <c r="S27" t="s" s="393">
+        <v>596</v>
+      </c>
+      <c r="T27" t="s" s="393">
+        <v>590</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C29" t="s">
+        <v>588</v>
+      </c>
+      <c r="D29" t="s">
+        <v>611</v>
+      </c>
+      <c r="E29" t="s">
         <v>587</v>
       </c>
-      <c r="D29" t="s">
-        <v>609</v>
-      </c>
-      <c r="E29" t="s">
-        <v>586</v>
-      </c>
       <c r="F29" t="s">
-        <v>588</v>
-      </c>
-      <c r="G29" t="s">
+        <v>589</v>
+      </c>
+      <c r="G29" t="s" s="394">
         <v>332</v>
       </c>
-      <c r="H29" t="s">
-        <v>332</v>
-      </c>
-      <c r="I29" t="s">
-        <v>589</v>
-      </c>
-      <c r="J29" t="s">
-        <v>589</v>
-      </c>
-      <c r="K29" t="s">
-        <v>590</v>
-      </c>
-      <c r="L29" t="s">
-        <v>590</v>
-      </c>
-      <c r="M29" t="s">
-        <v>610</v>
-      </c>
-      <c r="N29" t="s">
-        <v>610</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="H29" t="s" s="394">
+        <v>590</v>
+      </c>
+      <c r="I29" t="s" s="395">
+        <v>591</v>
+      </c>
+      <c r="J29" t="s" s="395">
+        <v>590</v>
+      </c>
+      <c r="K29" t="s" s="396">
         <v>592</v>
       </c>
-      <c r="P29" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>593</v>
-      </c>
-      <c r="R29" t="s">
-        <v>593</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="L29" t="s" s="396">
+        <v>590</v>
+      </c>
+      <c r="M29" t="s" s="397">
+        <v>612</v>
+      </c>
+      <c r="N29" t="s" s="397">
+        <v>590</v>
+      </c>
+      <c r="O29" t="s" s="398">
         <v>594</v>
       </c>
-      <c r="T29" t="s">
-        <v>594</v>
+      <c r="P29" t="s" s="398">
+        <v>590</v>
+      </c>
+      <c r="Q29" t="s" s="399">
+        <v>595</v>
+      </c>
+      <c r="R29" t="s" s="399">
+        <v>590</v>
+      </c>
+      <c r="S29" t="s" s="400">
+        <v>596</v>
+      </c>
+      <c r="T29" t="s" s="400">
+        <v>590</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C30" t="s">
+        <v>588</v>
+      </c>
+      <c r="D30" t="s">
+        <v>611</v>
+      </c>
+      <c r="E30" t="s">
         <v>587</v>
       </c>
-      <c r="D30" t="s">
-        <v>609</v>
-      </c>
-      <c r="E30" t="s">
-        <v>586</v>
-      </c>
       <c r="F30" t="s">
-        <v>595</v>
-      </c>
-      <c r="G30" t="s">
+        <v>597</v>
+      </c>
+      <c r="G30" t="s" s="401">
         <v>332</v>
       </c>
-      <c r="H30" t="s">
-        <v>332</v>
-      </c>
-      <c r="I30" t="s">
-        <v>589</v>
-      </c>
-      <c r="J30" t="s">
-        <v>589</v>
-      </c>
-      <c r="K30" t="s">
-        <v>590</v>
-      </c>
-      <c r="L30" t="s">
-        <v>590</v>
-      </c>
-      <c r="M30" t="s">
-        <v>610</v>
-      </c>
-      <c r="N30" t="s">
-        <v>610</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="H30" t="s" s="401">
+        <v>590</v>
+      </c>
+      <c r="I30" t="s" s="402">
+        <v>591</v>
+      </c>
+      <c r="J30" t="s" s="402">
+        <v>590</v>
+      </c>
+      <c r="K30" t="s" s="403">
         <v>592</v>
       </c>
-      <c r="P30" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="L30" t="s" s="403">
+        <v>590</v>
+      </c>
+      <c r="M30" t="s" s="404">
+        <v>612</v>
+      </c>
+      <c r="N30" t="s" s="404">
+        <v>590</v>
+      </c>
+      <c r="O30" t="s" s="405">
+        <v>594</v>
+      </c>
+      <c r="P30" t="s" s="405">
+        <v>590</v>
+      </c>
+      <c r="Q30" t="s" s="406">
+        <v>598</v>
+      </c>
+      <c r="R30" t="s" s="406">
+        <v>590</v>
+      </c>
+      <c r="S30" t="s" s="407">
         <v>596</v>
       </c>
-      <c r="R30" t="s">
-        <v>596</v>
-      </c>
-      <c r="S30" t="s">
-        <v>594</v>
-      </c>
-      <c r="T30" t="s">
-        <v>594</v>
+      <c r="T30" t="s" s="407">
+        <v>590</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C31" t="s">
+        <v>588</v>
+      </c>
+      <c r="D31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E31" t="s">
         <v>587</v>
       </c>
-      <c r="D31" t="s">
-        <v>609</v>
-      </c>
-      <c r="E31" t="s">
-        <v>586</v>
-      </c>
       <c r="F31" t="s">
-        <v>597</v>
-      </c>
-      <c r="G31" t="s">
+        <v>599</v>
+      </c>
+      <c r="G31" t="s" s="408">
         <v>332</v>
       </c>
-      <c r="H31" t="s">
-        <v>332</v>
-      </c>
-      <c r="I31" t="s">
-        <v>589</v>
-      </c>
-      <c r="J31" t="s">
-        <v>589</v>
-      </c>
-      <c r="K31" t="s">
-        <v>590</v>
-      </c>
-      <c r="L31" t="s">
-        <v>590</v>
-      </c>
-      <c r="M31" t="s">
-        <v>610</v>
-      </c>
-      <c r="N31" t="s">
-        <v>610</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="H31" t="s" s="408">
+        <v>590</v>
+      </c>
+      <c r="I31" t="s" s="409">
+        <v>591</v>
+      </c>
+      <c r="J31" t="s" s="409">
+        <v>590</v>
+      </c>
+      <c r="K31" t="s" s="410">
         <v>592</v>
       </c>
-      <c r="P31" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>598</v>
-      </c>
-      <c r="R31" t="s">
-        <v>598</v>
-      </c>
-      <c r="S31" t="s">
-        <v>599</v>
-      </c>
-      <c r="T31" t="s">
-        <v>599</v>
+      <c r="L31" t="s" s="410">
+        <v>590</v>
+      </c>
+      <c r="M31" t="s" s="411">
+        <v>612</v>
+      </c>
+      <c r="N31" t="s" s="411">
+        <v>590</v>
+      </c>
+      <c r="O31" t="s" s="412">
+        <v>594</v>
+      </c>
+      <c r="P31" t="s" s="412">
+        <v>590</v>
+      </c>
+      <c r="Q31" t="s" s="413">
+        <v>600</v>
+      </c>
+      <c r="R31" t="s" s="413">
+        <v>590</v>
+      </c>
+      <c r="S31" t="s" s="414">
+        <v>601</v>
+      </c>
+      <c r="T31" t="s" s="414">
+        <v>590</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D32" t="s">
+        <v>611</v>
+      </c>
+      <c r="E32" t="s">
         <v>587</v>
       </c>
-      <c r="D32" t="s">
-        <v>609</v>
-      </c>
-      <c r="E32" t="s">
-        <v>586</v>
-      </c>
       <c r="F32" t="s">
-        <v>586</v>
-      </c>
-      <c r="G32" t="s">
+        <v>587</v>
+      </c>
+      <c r="G32" t="s" s="415">
         <v>332</v>
       </c>
-      <c r="H32" t="s">
-        <v>332</v>
-      </c>
-      <c r="I32" t="s">
-        <v>589</v>
-      </c>
-      <c r="J32" t="s">
-        <v>589</v>
-      </c>
-      <c r="K32" t="s">
-        <v>590</v>
-      </c>
-      <c r="L32" t="s">
-        <v>590</v>
-      </c>
-      <c r="M32" t="s">
-        <v>610</v>
-      </c>
-      <c r="N32" t="s">
-        <v>610</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="H32" t="s" s="415">
+        <v>590</v>
+      </c>
+      <c r="I32" t="s" s="416">
+        <v>591</v>
+      </c>
+      <c r="J32" t="s" s="416">
+        <v>590</v>
+      </c>
+      <c r="K32" t="s" s="417">
         <v>592</v>
       </c>
-      <c r="P32" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>600</v>
-      </c>
-      <c r="R32" t="s">
-        <v>600</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="L32" t="s" s="417">
+        <v>590</v>
+      </c>
+      <c r="M32" t="s" s="418">
+        <v>612</v>
+      </c>
+      <c r="N32" t="s" s="418">
+        <v>590</v>
+      </c>
+      <c r="O32" t="s" s="419">
         <v>594</v>
       </c>
-      <c r="T32" t="s">
-        <v>594</v>
+      <c r="P32" t="s" s="419">
+        <v>590</v>
+      </c>
+      <c r="Q32" t="s" s="420">
+        <v>602</v>
+      </c>
+      <c r="R32" t="s" s="420">
+        <v>590</v>
+      </c>
+      <c r="S32" t="s" s="421">
+        <v>596</v>
+      </c>
+      <c r="T32" t="s" s="421">
+        <v>590</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C34" t="s">
+        <v>588</v>
+      </c>
+      <c r="D34" t="s">
+        <v>613</v>
+      </c>
+      <c r="E34" t="s">
         <v>587</v>
       </c>
-      <c r="D34" t="s">
-        <v>611</v>
-      </c>
-      <c r="E34" t="s">
-        <v>586</v>
-      </c>
       <c r="F34" t="s">
-        <v>588</v>
-      </c>
-      <c r="G34" t="s">
+        <v>589</v>
+      </c>
+      <c r="G34" t="s" s="422">
         <v>332</v>
       </c>
-      <c r="H34" t="s">
-        <v>332</v>
-      </c>
-      <c r="I34" t="s">
-        <v>589</v>
-      </c>
-      <c r="J34" t="s">
-        <v>589</v>
-      </c>
-      <c r="K34" t="s">
-        <v>590</v>
-      </c>
-      <c r="L34" t="s">
-        <v>590</v>
-      </c>
-      <c r="M34" t="s">
-        <v>612</v>
-      </c>
-      <c r="N34" t="s">
-        <v>612</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="H34" t="s" s="422">
+        <v>590</v>
+      </c>
+      <c r="I34" t="s" s="423">
+        <v>591</v>
+      </c>
+      <c r="J34" t="s" s="423">
+        <v>590</v>
+      </c>
+      <c r="K34" t="s" s="424">
         <v>592</v>
       </c>
-      <c r="P34" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>593</v>
-      </c>
-      <c r="R34" t="s">
-        <v>593</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="L34" t="s" s="424">
+        <v>590</v>
+      </c>
+      <c r="M34" t="s" s="425">
+        <v>614</v>
+      </c>
+      <c r="N34" t="s" s="425">
+        <v>590</v>
+      </c>
+      <c r="O34" t="s" s="426">
         <v>594</v>
       </c>
-      <c r="T34" t="s">
-        <v>594</v>
+      <c r="P34" t="s" s="426">
+        <v>590</v>
+      </c>
+      <c r="Q34" t="s" s="427">
+        <v>595</v>
+      </c>
+      <c r="R34" t="s" s="427">
+        <v>590</v>
+      </c>
+      <c r="S34" t="s" s="428">
+        <v>596</v>
+      </c>
+      <c r="T34" t="s" s="428">
+        <v>590</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D35" t="s">
+        <v>613</v>
+      </c>
+      <c r="E35" t="s">
         <v>587</v>
       </c>
-      <c r="D35" t="s">
-        <v>611</v>
-      </c>
-      <c r="E35" t="s">
-        <v>586</v>
-      </c>
       <c r="F35" t="s">
-        <v>595</v>
-      </c>
-      <c r="G35" t="s">
+        <v>597</v>
+      </c>
+      <c r="G35" t="s" s="429">
         <v>332</v>
       </c>
-      <c r="H35" t="s">
-        <v>332</v>
-      </c>
-      <c r="I35" t="s">
-        <v>589</v>
-      </c>
-      <c r="J35" t="s">
-        <v>589</v>
-      </c>
-      <c r="K35" t="s">
-        <v>590</v>
-      </c>
-      <c r="L35" t="s">
-        <v>590</v>
-      </c>
-      <c r="M35" t="s">
-        <v>612</v>
-      </c>
-      <c r="N35" t="s">
-        <v>612</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="H35" t="s" s="429">
+        <v>590</v>
+      </c>
+      <c r="I35" t="s" s="430">
+        <v>591</v>
+      </c>
+      <c r="J35" t="s" s="430">
+        <v>590</v>
+      </c>
+      <c r="K35" t="s" s="431">
         <v>592</v>
       </c>
-      <c r="P35" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="L35" t="s" s="431">
+        <v>590</v>
+      </c>
+      <c r="M35" t="s" s="432">
+        <v>614</v>
+      </c>
+      <c r="N35" t="s" s="432">
+        <v>590</v>
+      </c>
+      <c r="O35" t="s" s="433">
+        <v>594</v>
+      </c>
+      <c r="P35" t="s" s="433">
+        <v>590</v>
+      </c>
+      <c r="Q35" t="s" s="434">
+        <v>598</v>
+      </c>
+      <c r="R35" t="s" s="434">
+        <v>590</v>
+      </c>
+      <c r="S35" t="s" s="435">
         <v>596</v>
       </c>
-      <c r="R35" t="s">
-        <v>596</v>
-      </c>
-      <c r="S35" t="s">
-        <v>594</v>
-      </c>
-      <c r="T35" t="s">
-        <v>594</v>
+      <c r="T35" t="s" s="435">
+        <v>590</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C36" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" t="s">
+        <v>613</v>
+      </c>
+      <c r="E36" t="s">
         <v>587</v>
       </c>
-      <c r="D36" t="s">
-        <v>611</v>
-      </c>
-      <c r="E36" t="s">
-        <v>586</v>
-      </c>
       <c r="F36" t="s">
-        <v>597</v>
-      </c>
-      <c r="G36" t="s">
+        <v>599</v>
+      </c>
+      <c r="G36" t="s" s="436">
         <v>332</v>
       </c>
-      <c r="H36" t="s">
-        <v>332</v>
-      </c>
-      <c r="I36" t="s">
-        <v>589</v>
-      </c>
-      <c r="J36" t="s">
-        <v>589</v>
-      </c>
-      <c r="K36" t="s">
-        <v>590</v>
-      </c>
-      <c r="L36" t="s">
-        <v>590</v>
-      </c>
-      <c r="M36" t="s">
-        <v>612</v>
-      </c>
-      <c r="N36" t="s">
-        <v>612</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="H36" t="s" s="436">
+        <v>590</v>
+      </c>
+      <c r="I36" t="s" s="437">
+        <v>591</v>
+      </c>
+      <c r="J36" t="s" s="437">
+        <v>590</v>
+      </c>
+      <c r="K36" t="s" s="438">
         <v>592</v>
       </c>
-      <c r="P36" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>598</v>
-      </c>
-      <c r="R36" t="s">
-        <v>598</v>
-      </c>
-      <c r="S36" t="s">
-        <v>599</v>
-      </c>
-      <c r="T36" t="s">
-        <v>599</v>
+      <c r="L36" t="s" s="438">
+        <v>590</v>
+      </c>
+      <c r="M36" t="s" s="439">
+        <v>614</v>
+      </c>
+      <c r="N36" t="s" s="439">
+        <v>590</v>
+      </c>
+      <c r="O36" t="s" s="440">
+        <v>594</v>
+      </c>
+      <c r="P36" t="s" s="440">
+        <v>590</v>
+      </c>
+      <c r="Q36" t="s" s="441">
+        <v>600</v>
+      </c>
+      <c r="R36" t="s" s="441">
+        <v>590</v>
+      </c>
+      <c r="S36" t="s" s="442">
+        <v>601</v>
+      </c>
+      <c r="T36" t="s" s="442">
+        <v>590</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C37" t="s">
+        <v>588</v>
+      </c>
+      <c r="D37" t="s">
+        <v>613</v>
+      </c>
+      <c r="E37" t="s">
         <v>587</v>
       </c>
-      <c r="D37" t="s">
-        <v>611</v>
-      </c>
-      <c r="E37" t="s">
-        <v>586</v>
-      </c>
       <c r="F37" t="s">
-        <v>586</v>
-      </c>
-      <c r="G37" t="s">
+        <v>587</v>
+      </c>
+      <c r="G37" t="s" s="443">
         <v>332</v>
       </c>
-      <c r="H37" t="s">
-        <v>332</v>
-      </c>
-      <c r="I37" t="s">
-        <v>589</v>
-      </c>
-      <c r="J37" t="s">
-        <v>589</v>
-      </c>
-      <c r="K37" t="s">
-        <v>590</v>
-      </c>
-      <c r="L37" t="s">
-        <v>590</v>
-      </c>
-      <c r="M37" t="s">
-        <v>612</v>
-      </c>
-      <c r="N37" t="s">
-        <v>612</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="H37" t="s" s="443">
+        <v>590</v>
+      </c>
+      <c r="I37" t="s" s="444">
+        <v>591</v>
+      </c>
+      <c r="J37" t="s" s="444">
+        <v>590</v>
+      </c>
+      <c r="K37" t="s" s="445">
         <v>592</v>
       </c>
-      <c r="P37" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>600</v>
-      </c>
-      <c r="R37" t="s">
-        <v>600</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="L37" t="s" s="445">
+        <v>590</v>
+      </c>
+      <c r="M37" t="s" s="446">
+        <v>614</v>
+      </c>
+      <c r="N37" t="s" s="446">
+        <v>590</v>
+      </c>
+      <c r="O37" t="s" s="447">
         <v>594</v>
       </c>
-      <c r="T37" t="s">
-        <v>594</v>
+      <c r="P37" t="s" s="447">
+        <v>590</v>
+      </c>
+      <c r="Q37" t="s" s="448">
+        <v>602</v>
+      </c>
+      <c r="R37" t="s" s="448">
+        <v>590</v>
+      </c>
+      <c r="S37" t="s" s="449">
+        <v>596</v>
+      </c>
+      <c r="T37" t="s" s="449">
+        <v>590</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C39" t="s">
+        <v>588</v>
+      </c>
+      <c r="D39" t="s">
+        <v>615</v>
+      </c>
+      <c r="E39" t="s">
         <v>587</v>
       </c>
-      <c r="D39" t="s">
-        <v>613</v>
-      </c>
-      <c r="E39" t="s">
-        <v>586</v>
-      </c>
       <c r="F39" t="s">
-        <v>588</v>
-      </c>
-      <c r="G39" t="s">
+        <v>589</v>
+      </c>
+      <c r="G39" t="s" s="450">
         <v>332</v>
       </c>
-      <c r="H39" t="s">
-        <v>332</v>
-      </c>
-      <c r="I39" t="s">
-        <v>589</v>
-      </c>
-      <c r="J39" t="s">
-        <v>589</v>
-      </c>
-      <c r="K39" t="s">
-        <v>590</v>
-      </c>
-      <c r="L39" t="s">
-        <v>590</v>
-      </c>
-      <c r="M39" t="s">
-        <v>614</v>
-      </c>
-      <c r="N39" t="s">
-        <v>614</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="H39" t="s" s="450">
+        <v>590</v>
+      </c>
+      <c r="I39" t="s" s="451">
+        <v>591</v>
+      </c>
+      <c r="J39" t="s" s="451">
+        <v>590</v>
+      </c>
+      <c r="K39" t="s" s="452">
         <v>592</v>
       </c>
-      <c r="P39" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>593</v>
-      </c>
-      <c r="R39" t="s">
-        <v>593</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="L39" t="s" s="452">
+        <v>590</v>
+      </c>
+      <c r="M39" t="s" s="453">
+        <v>616</v>
+      </c>
+      <c r="N39" t="s" s="453">
+        <v>590</v>
+      </c>
+      <c r="O39" t="s" s="454">
         <v>594</v>
       </c>
-      <c r="T39" t="s">
-        <v>594</v>
+      <c r="P39" t="s" s="454">
+        <v>590</v>
+      </c>
+      <c r="Q39" t="s" s="455">
+        <v>595</v>
+      </c>
+      <c r="R39" t="s" s="455">
+        <v>590</v>
+      </c>
+      <c r="S39" t="s" s="456">
+        <v>596</v>
+      </c>
+      <c r="T39" t="s" s="456">
+        <v>590</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C40" t="s">
+        <v>588</v>
+      </c>
+      <c r="D40" t="s">
+        <v>615</v>
+      </c>
+      <c r="E40" t="s">
         <v>587</v>
       </c>
-      <c r="D40" t="s">
-        <v>613</v>
-      </c>
-      <c r="E40" t="s">
-        <v>586</v>
-      </c>
       <c r="F40" t="s">
-        <v>595</v>
-      </c>
-      <c r="G40" t="s">
+        <v>597</v>
+      </c>
+      <c r="G40" t="s" s="457">
         <v>332</v>
       </c>
-      <c r="H40" t="s">
-        <v>332</v>
-      </c>
-      <c r="I40" t="s">
-        <v>589</v>
-      </c>
-      <c r="J40" t="s">
-        <v>589</v>
-      </c>
-      <c r="K40" t="s">
-        <v>590</v>
-      </c>
-      <c r="L40" t="s">
-        <v>590</v>
-      </c>
-      <c r="M40" t="s">
-        <v>614</v>
-      </c>
-      <c r="N40" t="s">
-        <v>614</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="H40" t="s" s="457">
+        <v>590</v>
+      </c>
+      <c r="I40" t="s" s="458">
+        <v>591</v>
+      </c>
+      <c r="J40" t="s" s="458">
+        <v>590</v>
+      </c>
+      <c r="K40" t="s" s="459">
         <v>592</v>
       </c>
-      <c r="P40" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="L40" t="s" s="459">
+        <v>590</v>
+      </c>
+      <c r="M40" t="s" s="460">
+        <v>616</v>
+      </c>
+      <c r="N40" t="s" s="460">
+        <v>590</v>
+      </c>
+      <c r="O40" t="s" s="461">
+        <v>594</v>
+      </c>
+      <c r="P40" t="s" s="461">
+        <v>590</v>
+      </c>
+      <c r="Q40" t="s" s="462">
+        <v>598</v>
+      </c>
+      <c r="R40" t="s" s="462">
+        <v>590</v>
+      </c>
+      <c r="S40" t="s" s="463">
         <v>596</v>
       </c>
-      <c r="R40" t="s">
-        <v>596</v>
-      </c>
-      <c r="S40" t="s">
-        <v>594</v>
-      </c>
-      <c r="T40" t="s">
-        <v>594</v>
+      <c r="T40" t="s" s="463">
+        <v>590</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C41" t="s">
+        <v>588</v>
+      </c>
+      <c r="D41" t="s">
+        <v>615</v>
+      </c>
+      <c r="E41" t="s">
         <v>587</v>
       </c>
-      <c r="D41" t="s">
-        <v>613</v>
-      </c>
-      <c r="E41" t="s">
-        <v>586</v>
-      </c>
       <c r="F41" t="s">
-        <v>597</v>
-      </c>
-      <c r="G41" t="s">
+        <v>599</v>
+      </c>
+      <c r="G41" t="s" s="464">
         <v>332</v>
       </c>
-      <c r="H41" t="s">
-        <v>332</v>
-      </c>
-      <c r="I41" t="s">
-        <v>589</v>
-      </c>
-      <c r="J41" t="s">
-        <v>589</v>
-      </c>
-      <c r="K41" t="s">
-        <v>590</v>
-      </c>
-      <c r="L41" t="s">
-        <v>590</v>
-      </c>
-      <c r="M41" t="s">
-        <v>614</v>
-      </c>
-      <c r="N41" t="s">
-        <v>614</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="H41" t="s" s="464">
+        <v>590</v>
+      </c>
+      <c r="I41" t="s" s="465">
+        <v>591</v>
+      </c>
+      <c r="J41" t="s" s="465">
+        <v>590</v>
+      </c>
+      <c r="K41" t="s" s="466">
         <v>592</v>
       </c>
-      <c r="P41" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>598</v>
-      </c>
-      <c r="R41" t="s">
-        <v>598</v>
-      </c>
-      <c r="S41" t="s">
-        <v>599</v>
-      </c>
-      <c r="T41" t="s">
-        <v>599</v>
+      <c r="L41" t="s" s="466">
+        <v>590</v>
+      </c>
+      <c r="M41" t="s" s="467">
+        <v>616</v>
+      </c>
+      <c r="N41" t="s" s="467">
+        <v>590</v>
+      </c>
+      <c r="O41" t="s" s="468">
+        <v>594</v>
+      </c>
+      <c r="P41" t="s" s="468">
+        <v>590</v>
+      </c>
+      <c r="Q41" t="s" s="469">
+        <v>600</v>
+      </c>
+      <c r="R41" t="s" s="469">
+        <v>590</v>
+      </c>
+      <c r="S41" t="s" s="470">
+        <v>601</v>
+      </c>
+      <c r="T41" t="s" s="470">
+        <v>590</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C42" t="s">
+        <v>588</v>
+      </c>
+      <c r="D42" t="s">
+        <v>615</v>
+      </c>
+      <c r="E42" t="s">
         <v>587</v>
       </c>
-      <c r="D42" t="s">
-        <v>613</v>
-      </c>
-      <c r="E42" t="s">
-        <v>586</v>
-      </c>
       <c r="F42" t="s">
-        <v>586</v>
-      </c>
-      <c r="G42" t="s">
+        <v>587</v>
+      </c>
+      <c r="G42" t="s" s="471">
         <v>332</v>
       </c>
-      <c r="H42" t="s">
-        <v>332</v>
-      </c>
-      <c r="I42" t="s">
-        <v>589</v>
-      </c>
-      <c r="J42" t="s">
-        <v>589</v>
-      </c>
-      <c r="K42" t="s">
-        <v>590</v>
-      </c>
-      <c r="L42" t="s">
-        <v>590</v>
-      </c>
-      <c r="M42" t="s">
-        <v>614</v>
-      </c>
-      <c r="N42" t="s">
-        <v>614</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="H42" t="s" s="471">
+        <v>590</v>
+      </c>
+      <c r="I42" t="s" s="472">
+        <v>591</v>
+      </c>
+      <c r="J42" t="s" s="472">
+        <v>590</v>
+      </c>
+      <c r="K42" t="s" s="473">
         <v>592</v>
       </c>
-      <c r="P42" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>600</v>
-      </c>
-      <c r="R42" t="s">
-        <v>600</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="L42" t="s" s="473">
+        <v>590</v>
+      </c>
+      <c r="M42" t="s" s="474">
+        <v>616</v>
+      </c>
+      <c r="N42" t="s" s="474">
+        <v>590</v>
+      </c>
+      <c r="O42" t="s" s="475">
         <v>594</v>
       </c>
-      <c r="T42" t="s">
-        <v>594</v>
+      <c r="P42" t="s" s="475">
+        <v>590</v>
+      </c>
+      <c r="Q42" t="s" s="476">
+        <v>602</v>
+      </c>
+      <c r="R42" t="s" s="476">
+        <v>590</v>
+      </c>
+      <c r="S42" t="s" s="477">
+        <v>596</v>
+      </c>
+      <c r="T42" t="s" s="477">
+        <v>590</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C44" t="s">
+        <v>588</v>
+      </c>
+      <c r="D44" t="s">
+        <v>617</v>
+      </c>
+      <c r="E44" t="s">
         <v>587</v>
       </c>
-      <c r="D44" t="s">
-        <v>615</v>
-      </c>
-      <c r="E44" t="s">
-        <v>586</v>
-      </c>
       <c r="F44" t="s">
-        <v>588</v>
-      </c>
-      <c r="G44" t="s">
+        <v>589</v>
+      </c>
+      <c r="G44" t="s" s="478">
         <v>332</v>
       </c>
-      <c r="H44" t="s">
-        <v>332</v>
-      </c>
-      <c r="I44" t="s">
-        <v>589</v>
-      </c>
-      <c r="J44" t="s">
-        <v>589</v>
-      </c>
-      <c r="K44" t="s">
-        <v>590</v>
-      </c>
-      <c r="L44" t="s">
-        <v>590</v>
-      </c>
-      <c r="M44" t="s">
-        <v>616</v>
-      </c>
-      <c r="N44" t="s">
-        <v>616</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="H44" t="s" s="478">
+        <v>590</v>
+      </c>
+      <c r="I44" t="s" s="479">
+        <v>591</v>
+      </c>
+      <c r="J44" t="s" s="479">
+        <v>590</v>
+      </c>
+      <c r="K44" t="s" s="480">
         <v>592</v>
       </c>
-      <c r="P44" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>593</v>
-      </c>
-      <c r="R44" t="s">
-        <v>593</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="L44" t="s" s="480">
+        <v>590</v>
+      </c>
+      <c r="M44" t="s" s="481">
+        <v>618</v>
+      </c>
+      <c r="N44" t="s" s="481">
+        <v>590</v>
+      </c>
+      <c r="O44" t="s" s="482">
         <v>594</v>
       </c>
-      <c r="T44" t="s">
-        <v>594</v>
+      <c r="P44" t="s" s="482">
+        <v>590</v>
+      </c>
+      <c r="Q44" t="s" s="483">
+        <v>595</v>
+      </c>
+      <c r="R44" t="s" s="483">
+        <v>590</v>
+      </c>
+      <c r="S44" t="s" s="484">
+        <v>596</v>
+      </c>
+      <c r="T44" t="s" s="484">
+        <v>590</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C45" t="s">
+        <v>588</v>
+      </c>
+      <c r="D45" t="s">
+        <v>617</v>
+      </c>
+      <c r="E45" t="s">
         <v>587</v>
       </c>
-      <c r="D45" t="s">
-        <v>615</v>
-      </c>
-      <c r="E45" t="s">
-        <v>586</v>
-      </c>
       <c r="F45" t="s">
-        <v>595</v>
-      </c>
-      <c r="G45" t="s">
+        <v>597</v>
+      </c>
+      <c r="G45" t="s" s="485">
         <v>332</v>
       </c>
-      <c r="H45" t="s">
-        <v>332</v>
-      </c>
-      <c r="I45" t="s">
-        <v>589</v>
-      </c>
-      <c r="J45" t="s">
-        <v>589</v>
-      </c>
-      <c r="K45" t="s">
-        <v>590</v>
-      </c>
-      <c r="L45" t="s">
-        <v>590</v>
-      </c>
-      <c r="M45" t="s">
-        <v>616</v>
-      </c>
-      <c r="N45" t="s">
-        <v>616</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="H45" t="s" s="485">
+        <v>590</v>
+      </c>
+      <c r="I45" t="s" s="486">
+        <v>591</v>
+      </c>
+      <c r="J45" t="s" s="486">
+        <v>590</v>
+      </c>
+      <c r="K45" t="s" s="487">
         <v>592</v>
       </c>
-      <c r="P45" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="L45" t="s" s="487">
+        <v>590</v>
+      </c>
+      <c r="M45" t="s" s="488">
+        <v>618</v>
+      </c>
+      <c r="N45" t="s" s="488">
+        <v>590</v>
+      </c>
+      <c r="O45" t="s" s="489">
+        <v>594</v>
+      </c>
+      <c r="P45" t="s" s="489">
+        <v>590</v>
+      </c>
+      <c r="Q45" t="s" s="490">
+        <v>598</v>
+      </c>
+      <c r="R45" t="s" s="490">
+        <v>590</v>
+      </c>
+      <c r="S45" t="s" s="491">
         <v>596</v>
       </c>
-      <c r="R45" t="s">
-        <v>596</v>
-      </c>
-      <c r="S45" t="s">
-        <v>594</v>
-      </c>
-      <c r="T45" t="s">
-        <v>594</v>
+      <c r="T45" t="s" s="491">
+        <v>590</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C46" t="s">
+        <v>588</v>
+      </c>
+      <c r="D46" t="s">
+        <v>617</v>
+      </c>
+      <c r="E46" t="s">
         <v>587</v>
       </c>
-      <c r="D46" t="s">
-        <v>615</v>
-      </c>
-      <c r="E46" t="s">
-        <v>586</v>
-      </c>
       <c r="F46" t="s">
-        <v>597</v>
-      </c>
-      <c r="G46" t="s">
+        <v>599</v>
+      </c>
+      <c r="G46" t="s" s="492">
         <v>332</v>
       </c>
-      <c r="H46" t="s">
-        <v>332</v>
-      </c>
-      <c r="I46" t="s">
-        <v>589</v>
-      </c>
-      <c r="J46" t="s">
-        <v>589</v>
-      </c>
-      <c r="K46" t="s">
-        <v>590</v>
-      </c>
-      <c r="L46" t="s">
-        <v>590</v>
-      </c>
-      <c r="M46" t="s">
-        <v>616</v>
-      </c>
-      <c r="N46" t="s">
-        <v>616</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="H46" t="s" s="492">
+        <v>590</v>
+      </c>
+      <c r="I46" t="s" s="493">
+        <v>591</v>
+      </c>
+      <c r="J46" t="s" s="493">
+        <v>590</v>
+      </c>
+      <c r="K46" t="s" s="494">
         <v>592</v>
       </c>
-      <c r="P46" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>598</v>
-      </c>
-      <c r="R46" t="s">
-        <v>598</v>
-      </c>
-      <c r="S46" t="s">
-        <v>599</v>
-      </c>
-      <c r="T46" t="s">
-        <v>599</v>
+      <c r="L46" t="s" s="494">
+        <v>590</v>
+      </c>
+      <c r="M46" t="s" s="495">
+        <v>618</v>
+      </c>
+      <c r="N46" t="s" s="495">
+        <v>590</v>
+      </c>
+      <c r="O46" t="s" s="496">
+        <v>594</v>
+      </c>
+      <c r="P46" t="s" s="496">
+        <v>590</v>
+      </c>
+      <c r="Q46" t="s" s="497">
+        <v>600</v>
+      </c>
+      <c r="R46" t="s" s="497">
+        <v>590</v>
+      </c>
+      <c r="S46" t="s" s="498">
+        <v>601</v>
+      </c>
+      <c r="T46" t="s" s="498">
+        <v>590</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C47" t="s">
+        <v>588</v>
+      </c>
+      <c r="D47" t="s">
+        <v>617</v>
+      </c>
+      <c r="E47" t="s">
         <v>587</v>
       </c>
-      <c r="D47" t="s">
-        <v>615</v>
-      </c>
-      <c r="E47" t="s">
-        <v>586</v>
-      </c>
       <c r="F47" t="s">
-        <v>586</v>
-      </c>
-      <c r="G47" t="s">
+        <v>587</v>
+      </c>
+      <c r="G47" t="s" s="499">
         <v>332</v>
       </c>
-      <c r="H47" t="s">
-        <v>332</v>
-      </c>
-      <c r="I47" t="s">
-        <v>589</v>
-      </c>
-      <c r="J47" t="s">
-        <v>589</v>
-      </c>
-      <c r="K47" t="s">
-        <v>590</v>
-      </c>
-      <c r="L47" t="s">
-        <v>590</v>
-      </c>
-      <c r="M47" t="s">
-        <v>616</v>
-      </c>
-      <c r="N47" t="s">
-        <v>616</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="H47" t="s" s="499">
+        <v>590</v>
+      </c>
+      <c r="I47" t="s" s="500">
+        <v>591</v>
+      </c>
+      <c r="J47" t="s" s="500">
+        <v>590</v>
+      </c>
+      <c r="K47" t="s" s="501">
         <v>592</v>
       </c>
-      <c r="P47" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>600</v>
-      </c>
-      <c r="R47" t="s">
-        <v>600</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="L47" t="s" s="501">
+        <v>590</v>
+      </c>
+      <c r="M47" t="s" s="502">
+        <v>618</v>
+      </c>
+      <c r="N47" t="s" s="502">
+        <v>590</v>
+      </c>
+      <c r="O47" t="s" s="503">
         <v>594</v>
       </c>
-      <c r="T47" t="s">
-        <v>594</v>
+      <c r="P47" t="s" s="503">
+        <v>590</v>
+      </c>
+      <c r="Q47" t="s" s="504">
+        <v>602</v>
+      </c>
+      <c r="R47" t="s" s="504">
+        <v>590</v>
+      </c>
+      <c r="S47" t="s" s="505">
+        <v>596</v>
+      </c>
+      <c r="T47" t="s" s="505">
+        <v>590</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C49" t="s">
+        <v>588</v>
+      </c>
+      <c r="D49" t="s">
+        <v>619</v>
+      </c>
+      <c r="E49" t="s">
         <v>587</v>
       </c>
-      <c r="D49" t="s">
-        <v>617</v>
-      </c>
-      <c r="E49" t="s">
-        <v>586</v>
-      </c>
       <c r="F49" t="s">
-        <v>588</v>
-      </c>
-      <c r="G49" t="s">
+        <v>589</v>
+      </c>
+      <c r="G49" t="s" s="506">
         <v>332</v>
       </c>
-      <c r="H49" t="s">
-        <v>332</v>
-      </c>
-      <c r="I49" t="s">
-        <v>589</v>
-      </c>
-      <c r="J49" t="s">
-        <v>589</v>
-      </c>
-      <c r="K49" t="s">
-        <v>590</v>
-      </c>
-      <c r="L49" t="s">
-        <v>590</v>
-      </c>
-      <c r="M49" t="s">
-        <v>618</v>
-      </c>
-      <c r="N49" t="s">
-        <v>618</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="H49" t="s" s="506">
+        <v>590</v>
+      </c>
+      <c r="I49" t="s" s="507">
+        <v>591</v>
+      </c>
+      <c r="J49" t="s" s="507">
+        <v>590</v>
+      </c>
+      <c r="K49" t="s" s="508">
         <v>592</v>
       </c>
-      <c r="P49" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>593</v>
-      </c>
-      <c r="R49" t="s">
-        <v>593</v>
-      </c>
-      <c r="S49" t="s">
+      <c r="L49" t="s" s="508">
+        <v>590</v>
+      </c>
+      <c r="M49" t="s" s="509">
+        <v>620</v>
+      </c>
+      <c r="N49" t="s" s="509">
+        <v>590</v>
+      </c>
+      <c r="O49" t="s" s="510">
         <v>594</v>
       </c>
-      <c r="T49" t="s">
-        <v>594</v>
+      <c r="P49" t="s" s="510">
+        <v>590</v>
+      </c>
+      <c r="Q49" t="s" s="511">
+        <v>595</v>
+      </c>
+      <c r="R49" t="s" s="511">
+        <v>590</v>
+      </c>
+      <c r="S49" t="s" s="512">
+        <v>596</v>
+      </c>
+      <c r="T49" t="s" s="512">
+        <v>590</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C50" t="s">
+        <v>588</v>
+      </c>
+      <c r="D50" t="s">
+        <v>619</v>
+      </c>
+      <c r="E50" t="s">
         <v>587</v>
       </c>
-      <c r="D50" t="s">
-        <v>617</v>
-      </c>
-      <c r="E50" t="s">
-        <v>586</v>
-      </c>
       <c r="F50" t="s">
-        <v>595</v>
-      </c>
-      <c r="G50" t="s">
+        <v>597</v>
+      </c>
+      <c r="G50" t="s" s="513">
         <v>332</v>
       </c>
-      <c r="H50" t="s">
-        <v>332</v>
-      </c>
-      <c r="I50" t="s">
-        <v>589</v>
-      </c>
-      <c r="J50" t="s">
-        <v>589</v>
-      </c>
-      <c r="K50" t="s">
-        <v>590</v>
-      </c>
-      <c r="L50" t="s">
-        <v>590</v>
-      </c>
-      <c r="M50" t="s">
-        <v>618</v>
-      </c>
-      <c r="N50" t="s">
-        <v>618</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="H50" t="s" s="513">
+        <v>590</v>
+      </c>
+      <c r="I50" t="s" s="514">
+        <v>591</v>
+      </c>
+      <c r="J50" t="s" s="514">
+        <v>590</v>
+      </c>
+      <c r="K50" t="s" s="515">
         <v>592</v>
       </c>
-      <c r="P50" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="L50" t="s" s="515">
+        <v>590</v>
+      </c>
+      <c r="M50" t="s" s="516">
+        <v>620</v>
+      </c>
+      <c r="N50" t="s" s="516">
+        <v>590</v>
+      </c>
+      <c r="O50" t="s" s="517">
+        <v>594</v>
+      </c>
+      <c r="P50" t="s" s="517">
+        <v>590</v>
+      </c>
+      <c r="Q50" t="s" s="518">
+        <v>598</v>
+      </c>
+      <c r="R50" t="s" s="518">
+        <v>590</v>
+      </c>
+      <c r="S50" t="s" s="519">
         <v>596</v>
       </c>
-      <c r="R50" t="s">
-        <v>596</v>
-      </c>
-      <c r="S50" t="s">
-        <v>594</v>
-      </c>
-      <c r="T50" t="s">
-        <v>594</v>
+      <c r="T50" t="s" s="519">
+        <v>590</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C51" t="s">
+        <v>588</v>
+      </c>
+      <c r="D51" t="s">
+        <v>619</v>
+      </c>
+      <c r="E51" t="s">
         <v>587</v>
       </c>
-      <c r="D51" t="s">
-        <v>617</v>
-      </c>
-      <c r="E51" t="s">
-        <v>586</v>
-      </c>
       <c r="F51" t="s">
-        <v>597</v>
-      </c>
-      <c r="G51" t="s">
+        <v>599</v>
+      </c>
+      <c r="G51" t="s" s="520">
         <v>332</v>
       </c>
-      <c r="H51" t="s">
-        <v>332</v>
-      </c>
-      <c r="I51" t="s">
-        <v>589</v>
-      </c>
-      <c r="J51" t="s">
-        <v>589</v>
-      </c>
-      <c r="K51" t="s">
-        <v>590</v>
-      </c>
-      <c r="L51" t="s">
-        <v>590</v>
-      </c>
-      <c r="M51" t="s">
-        <v>618</v>
-      </c>
-      <c r="N51" t="s">
-        <v>618</v>
-      </c>
-      <c r="O51" t="s">
+      <c r="H51" t="s" s="520">
+        <v>590</v>
+      </c>
+      <c r="I51" t="s" s="521">
+        <v>591</v>
+      </c>
+      <c r="J51" t="s" s="521">
+        <v>590</v>
+      </c>
+      <c r="K51" t="s" s="522">
         <v>592</v>
       </c>
-      <c r="P51" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>598</v>
-      </c>
-      <c r="R51" t="s">
-        <v>598</v>
-      </c>
-      <c r="S51" t="s">
-        <v>599</v>
-      </c>
-      <c r="T51" t="s">
-        <v>599</v>
+      <c r="L51" t="s" s="522">
+        <v>590</v>
+      </c>
+      <c r="M51" t="s" s="523">
+        <v>620</v>
+      </c>
+      <c r="N51" t="s" s="523">
+        <v>590</v>
+      </c>
+      <c r="O51" t="s" s="524">
+        <v>594</v>
+      </c>
+      <c r="P51" t="s" s="524">
+        <v>590</v>
+      </c>
+      <c r="Q51" t="s" s="525">
+        <v>600</v>
+      </c>
+      <c r="R51" t="s" s="525">
+        <v>590</v>
+      </c>
+      <c r="S51" t="s" s="526">
+        <v>601</v>
+      </c>
+      <c r="T51" t="s" s="526">
+        <v>590</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C52" t="s">
+        <v>588</v>
+      </c>
+      <c r="D52" t="s">
+        <v>619</v>
+      </c>
+      <c r="E52" t="s">
         <v>587</v>
       </c>
-      <c r="D52" t="s">
-        <v>617</v>
-      </c>
-      <c r="E52" t="s">
-        <v>586</v>
-      </c>
       <c r="F52" t="s">
-        <v>586</v>
-      </c>
-      <c r="G52" t="s">
+        <v>587</v>
+      </c>
+      <c r="G52" t="s" s="527">
         <v>332</v>
       </c>
-      <c r="H52" t="s">
-        <v>332</v>
-      </c>
-      <c r="I52" t="s">
-        <v>589</v>
-      </c>
-      <c r="J52" t="s">
-        <v>589</v>
-      </c>
-      <c r="K52" t="s">
-        <v>590</v>
-      </c>
-      <c r="L52" t="s">
-        <v>590</v>
-      </c>
-      <c r="M52" t="s">
-        <v>618</v>
-      </c>
-      <c r="N52" t="s">
-        <v>618</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="H52" t="s" s="527">
+        <v>590</v>
+      </c>
+      <c r="I52" t="s" s="528">
+        <v>591</v>
+      </c>
+      <c r="J52" t="s" s="528">
+        <v>590</v>
+      </c>
+      <c r="K52" t="s" s="529">
         <v>592</v>
       </c>
-      <c r="P52" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>600</v>
-      </c>
-      <c r="R52" t="s">
-        <v>600</v>
-      </c>
-      <c r="S52" t="s">
+      <c r="L52" t="s" s="529">
+        <v>590</v>
+      </c>
+      <c r="M52" t="s" s="530">
+        <v>620</v>
+      </c>
+      <c r="N52" t="s" s="530">
+        <v>590</v>
+      </c>
+      <c r="O52" t="s" s="531">
         <v>594</v>
       </c>
-      <c r="T52" t="s">
-        <v>594</v>
+      <c r="P52" t="s" s="531">
+        <v>590</v>
+      </c>
+      <c r="Q52" t="s" s="532">
+        <v>602</v>
+      </c>
+      <c r="R52" t="s" s="532">
+        <v>590</v>
+      </c>
+      <c r="S52" t="s" s="533">
+        <v>596</v>
+      </c>
+      <c r="T52" t="s" s="533">
+        <v>590</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C54" t="s">
+        <v>588</v>
+      </c>
+      <c r="D54" t="s">
+        <v>621</v>
+      </c>
+      <c r="E54" t="s">
         <v>587</v>
       </c>
-      <c r="D54" t="s">
-        <v>619</v>
-      </c>
-      <c r="E54" t="s">
-        <v>586</v>
-      </c>
       <c r="F54" t="s">
-        <v>588</v>
-      </c>
-      <c r="G54" t="s">
+        <v>589</v>
+      </c>
+      <c r="G54" t="s" s="534">
         <v>332</v>
       </c>
-      <c r="H54" t="s">
-        <v>332</v>
-      </c>
-      <c r="I54" t="s">
-        <v>589</v>
-      </c>
-      <c r="J54" t="s">
-        <v>589</v>
-      </c>
-      <c r="K54" t="s">
-        <v>590</v>
-      </c>
-      <c r="L54" t="s">
-        <v>590</v>
-      </c>
-      <c r="M54" t="s">
-        <v>620</v>
-      </c>
-      <c r="N54" t="s">
-        <v>620</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="H54" t="s" s="534">
+        <v>590</v>
+      </c>
+      <c r="I54" t="s" s="535">
+        <v>591</v>
+      </c>
+      <c r="J54" t="s" s="535">
+        <v>590</v>
+      </c>
+      <c r="K54" t="s" s="536">
         <v>592</v>
       </c>
-      <c r="P54" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>593</v>
-      </c>
-      <c r="R54" t="s">
-        <v>593</v>
-      </c>
-      <c r="S54" t="s">
+      <c r="L54" t="s" s="536">
+        <v>590</v>
+      </c>
+      <c r="M54" t="s" s="537">
+        <v>622</v>
+      </c>
+      <c r="N54" t="s" s="537">
+        <v>590</v>
+      </c>
+      <c r="O54" t="s" s="538">
         <v>594</v>
       </c>
-      <c r="T54" t="s">
-        <v>594</v>
+      <c r="P54" t="s" s="538">
+        <v>590</v>
+      </c>
+      <c r="Q54" t="s" s="539">
+        <v>595</v>
+      </c>
+      <c r="R54" t="s" s="539">
+        <v>590</v>
+      </c>
+      <c r="S54" t="s" s="540">
+        <v>596</v>
+      </c>
+      <c r="T54" t="s" s="540">
+        <v>590</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C55" t="s">
+        <v>588</v>
+      </c>
+      <c r="D55" t="s">
+        <v>621</v>
+      </c>
+      <c r="E55" t="s">
         <v>587</v>
       </c>
-      <c r="D55" t="s">
-        <v>619</v>
-      </c>
-      <c r="E55" t="s">
-        <v>586</v>
-      </c>
       <c r="F55" t="s">
-        <v>595</v>
-      </c>
-      <c r="G55" t="s">
+        <v>597</v>
+      </c>
+      <c r="G55" t="s" s="541">
         <v>332</v>
       </c>
-      <c r="H55" t="s">
-        <v>332</v>
-      </c>
-      <c r="I55" t="s">
-        <v>589</v>
-      </c>
-      <c r="J55" t="s">
-        <v>589</v>
-      </c>
-      <c r="K55" t="s">
-        <v>590</v>
-      </c>
-      <c r="L55" t="s">
-        <v>590</v>
-      </c>
-      <c r="M55" t="s">
-        <v>620</v>
-      </c>
-      <c r="N55" t="s">
-        <v>620</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="H55" t="s" s="541">
+        <v>590</v>
+      </c>
+      <c r="I55" t="s" s="542">
+        <v>591</v>
+      </c>
+      <c r="J55" t="s" s="542">
+        <v>590</v>
+      </c>
+      <c r="K55" t="s" s="543">
         <v>592</v>
       </c>
-      <c r="P55" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="L55" t="s" s="543">
+        <v>590</v>
+      </c>
+      <c r="M55" t="s" s="544">
+        <v>622</v>
+      </c>
+      <c r="N55" t="s" s="544">
+        <v>590</v>
+      </c>
+      <c r="O55" t="s" s="545">
+        <v>594</v>
+      </c>
+      <c r="P55" t="s" s="545">
+        <v>590</v>
+      </c>
+      <c r="Q55" t="s" s="546">
+        <v>598</v>
+      </c>
+      <c r="R55" t="s" s="546">
+        <v>590</v>
+      </c>
+      <c r="S55" t="s" s="547">
         <v>596</v>
       </c>
-      <c r="R55" t="s">
-        <v>596</v>
-      </c>
-      <c r="S55" t="s">
-        <v>594</v>
-      </c>
-      <c r="T55" t="s">
-        <v>594</v>
+      <c r="T55" t="s" s="547">
+        <v>590</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C56" t="s">
+        <v>588</v>
+      </c>
+      <c r="D56" t="s">
+        <v>621</v>
+      </c>
+      <c r="E56" t="s">
         <v>587</v>
       </c>
-      <c r="D56" t="s">
-        <v>619</v>
-      </c>
-      <c r="E56" t="s">
-        <v>586</v>
-      </c>
       <c r="F56" t="s">
-        <v>597</v>
-      </c>
-      <c r="G56" t="s">
+        <v>599</v>
+      </c>
+      <c r="G56" t="s" s="548">
         <v>332</v>
       </c>
-      <c r="H56" t="s">
-        <v>332</v>
-      </c>
-      <c r="I56" t="s">
-        <v>589</v>
-      </c>
-      <c r="J56" t="s">
-        <v>589</v>
-      </c>
-      <c r="K56" t="s">
-        <v>590</v>
-      </c>
-      <c r="L56" t="s">
-        <v>590</v>
-      </c>
-      <c r="M56" t="s">
-        <v>620</v>
-      </c>
-      <c r="N56" t="s">
-        <v>620</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="H56" t="s" s="548">
+        <v>590</v>
+      </c>
+      <c r="I56" t="s" s="549">
+        <v>591</v>
+      </c>
+      <c r="J56" t="s" s="549">
+        <v>590</v>
+      </c>
+      <c r="K56" t="s" s="550">
         <v>592</v>
       </c>
-      <c r="P56" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>598</v>
-      </c>
-      <c r="R56" t="s">
-        <v>598</v>
-      </c>
-      <c r="S56" t="s">
-        <v>599</v>
-      </c>
-      <c r="T56" t="s">
-        <v>599</v>
+      <c r="L56" t="s" s="550">
+        <v>590</v>
+      </c>
+      <c r="M56" t="s" s="551">
+        <v>622</v>
+      </c>
+      <c r="N56" t="s" s="551">
+        <v>590</v>
+      </c>
+      <c r="O56" t="s" s="552">
+        <v>594</v>
+      </c>
+      <c r="P56" t="s" s="552">
+        <v>590</v>
+      </c>
+      <c r="Q56" t="s" s="553">
+        <v>600</v>
+      </c>
+      <c r="R56" t="s" s="553">
+        <v>590</v>
+      </c>
+      <c r="S56" t="s" s="554">
+        <v>601</v>
+      </c>
+      <c r="T56" t="s" s="554">
+        <v>590</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C57" t="s">
+        <v>588</v>
+      </c>
+      <c r="D57" t="s">
+        <v>621</v>
+      </c>
+      <c r="E57" t="s">
         <v>587</v>
       </c>
-      <c r="D57" t="s">
-        <v>619</v>
-      </c>
-      <c r="E57" t="s">
-        <v>586</v>
-      </c>
       <c r="F57" t="s">
-        <v>586</v>
-      </c>
-      <c r="G57" t="s">
+        <v>587</v>
+      </c>
+      <c r="G57" t="s" s="555">
         <v>332</v>
       </c>
-      <c r="H57" t="s">
-        <v>332</v>
-      </c>
-      <c r="I57" t="s">
-        <v>589</v>
-      </c>
-      <c r="J57" t="s">
-        <v>589</v>
-      </c>
-      <c r="K57" t="s">
-        <v>590</v>
-      </c>
-      <c r="L57" t="s">
-        <v>590</v>
-      </c>
-      <c r="M57" t="s">
-        <v>620</v>
-      </c>
-      <c r="N57" t="s">
-        <v>620</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="H57" t="s" s="555">
+        <v>590</v>
+      </c>
+      <c r="I57" t="s" s="556">
+        <v>591</v>
+      </c>
+      <c r="J57" t="s" s="556">
+        <v>590</v>
+      </c>
+      <c r="K57" t="s" s="557">
         <v>592</v>
       </c>
-      <c r="P57" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>600</v>
-      </c>
-      <c r="R57" t="s">
-        <v>600</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="L57" t="s" s="557">
+        <v>590</v>
+      </c>
+      <c r="M57" t="s" s="558">
+        <v>622</v>
+      </c>
+      <c r="N57" t="s" s="558">
+        <v>590</v>
+      </c>
+      <c r="O57" t="s" s="559">
         <v>594</v>
       </c>
-      <c r="T57" t="s">
-        <v>594</v>
+      <c r="P57" t="s" s="559">
+        <v>590</v>
+      </c>
+      <c r="Q57" t="s" s="560">
+        <v>602</v>
+      </c>
+      <c r="R57" t="s" s="560">
+        <v>590</v>
+      </c>
+      <c r="S57" t="s" s="561">
+        <v>596</v>
+      </c>
+      <c r="T57" t="s" s="561">
+        <v>590</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C59" t="s">
+        <v>588</v>
+      </c>
+      <c r="D59" t="s">
+        <v>623</v>
+      </c>
+      <c r="E59" t="s">
         <v>587</v>
       </c>
-      <c r="D59" t="s">
-        <v>621</v>
-      </c>
-      <c r="E59" t="s">
-        <v>586</v>
-      </c>
       <c r="F59" t="s">
-        <v>588</v>
-      </c>
-      <c r="G59" t="s">
+        <v>589</v>
+      </c>
+      <c r="G59" t="s" s="562">
         <v>332</v>
       </c>
-      <c r="H59" t="s">
-        <v>332</v>
-      </c>
-      <c r="I59" t="s">
-        <v>589</v>
-      </c>
-      <c r="J59" t="s">
-        <v>589</v>
-      </c>
-      <c r="K59" t="s">
-        <v>590</v>
-      </c>
-      <c r="L59" t="s">
-        <v>590</v>
-      </c>
-      <c r="M59" t="s">
-        <v>622</v>
-      </c>
-      <c r="N59" t="s">
-        <v>622</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="H59" t="s" s="562">
+        <v>590</v>
+      </c>
+      <c r="I59" t="s" s="563">
+        <v>591</v>
+      </c>
+      <c r="J59" t="s" s="563">
+        <v>590</v>
+      </c>
+      <c r="K59" t="s" s="564">
         <v>592</v>
       </c>
-      <c r="P59" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>593</v>
-      </c>
-      <c r="R59" t="s">
-        <v>593</v>
-      </c>
-      <c r="S59" t="s">
+      <c r="L59" t="s" s="564">
+        <v>590</v>
+      </c>
+      <c r="M59" t="s" s="565">
+        <v>624</v>
+      </c>
+      <c r="N59" t="s" s="565">
+        <v>590</v>
+      </c>
+      <c r="O59" t="s" s="566">
         <v>594</v>
       </c>
-      <c r="T59" t="s">
-        <v>594</v>
+      <c r="P59" t="s" s="566">
+        <v>590</v>
+      </c>
+      <c r="Q59" t="s" s="567">
+        <v>595</v>
+      </c>
+      <c r="R59" t="s" s="567">
+        <v>590</v>
+      </c>
+      <c r="S59" t="s" s="568">
+        <v>596</v>
+      </c>
+      <c r="T59" t="s" s="568">
+        <v>590</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C60" t="s">
+        <v>588</v>
+      </c>
+      <c r="D60" t="s">
+        <v>623</v>
+      </c>
+      <c r="E60" t="s">
         <v>587</v>
       </c>
-      <c r="D60" t="s">
-        <v>621</v>
-      </c>
-      <c r="E60" t="s">
-        <v>586</v>
-      </c>
       <c r="F60" t="s">
-        <v>595</v>
-      </c>
-      <c r="G60" t="s">
+        <v>597</v>
+      </c>
+      <c r="G60" t="s" s="569">
         <v>332</v>
       </c>
-      <c r="H60" t="s">
-        <v>332</v>
-      </c>
-      <c r="I60" t="s">
-        <v>589</v>
-      </c>
-      <c r="J60" t="s">
-        <v>589</v>
-      </c>
-      <c r="K60" t="s">
-        <v>590</v>
-      </c>
-      <c r="L60" t="s">
-        <v>590</v>
-      </c>
-      <c r="M60" t="s">
-        <v>622</v>
-      </c>
-      <c r="N60" t="s">
-        <v>622</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="H60" t="s" s="569">
+        <v>590</v>
+      </c>
+      <c r="I60" t="s" s="570">
+        <v>591</v>
+      </c>
+      <c r="J60" t="s" s="570">
+        <v>590</v>
+      </c>
+      <c r="K60" t="s" s="571">
         <v>592</v>
       </c>
-      <c r="P60" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="L60" t="s" s="571">
+        <v>590</v>
+      </c>
+      <c r="M60" t="s" s="572">
+        <v>624</v>
+      </c>
+      <c r="N60" t="s" s="572">
+        <v>590</v>
+      </c>
+      <c r="O60" t="s" s="573">
+        <v>594</v>
+      </c>
+      <c r="P60" t="s" s="573">
+        <v>590</v>
+      </c>
+      <c r="Q60" t="s" s="574">
+        <v>598</v>
+      </c>
+      <c r="R60" t="s" s="574">
+        <v>590</v>
+      </c>
+      <c r="S60" t="s" s="575">
         <v>596</v>
       </c>
-      <c r="R60" t="s">
-        <v>596</v>
-      </c>
-      <c r="S60" t="s">
-        <v>594</v>
-      </c>
-      <c r="T60" t="s">
-        <v>594</v>
+      <c r="T60" t="s" s="575">
+        <v>590</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C61" t="s">
+        <v>588</v>
+      </c>
+      <c r="D61" t="s">
+        <v>623</v>
+      </c>
+      <c r="E61" t="s">
         <v>587</v>
       </c>
-      <c r="D61" t="s">
-        <v>621</v>
-      </c>
-      <c r="E61" t="s">
-        <v>586</v>
-      </c>
       <c r="F61" t="s">
-        <v>597</v>
-      </c>
-      <c r="G61" t="s">
+        <v>599</v>
+      </c>
+      <c r="G61" t="s" s="576">
         <v>332</v>
       </c>
-      <c r="H61" t="s">
-        <v>332</v>
-      </c>
-      <c r="I61" t="s">
-        <v>589</v>
-      </c>
-      <c r="J61" t="s">
-        <v>589</v>
-      </c>
-      <c r="K61" t="s">
-        <v>590</v>
-      </c>
-      <c r="L61" t="s">
-        <v>590</v>
-      </c>
-      <c r="M61" t="s">
-        <v>622</v>
-      </c>
-      <c r="N61" t="s">
-        <v>622</v>
-      </c>
-      <c r="O61" t="s">
+      <c r="H61" t="s" s="576">
+        <v>590</v>
+      </c>
+      <c r="I61" t="s" s="577">
+        <v>591</v>
+      </c>
+      <c r="J61" t="s" s="577">
+        <v>590</v>
+      </c>
+      <c r="K61" t="s" s="578">
         <v>592</v>
       </c>
-      <c r="P61" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>598</v>
-      </c>
-      <c r="R61" t="s">
-        <v>598</v>
-      </c>
-      <c r="S61" t="s">
-        <v>599</v>
-      </c>
-      <c r="T61" t="s">
-        <v>599</v>
+      <c r="L61" t="s" s="578">
+        <v>590</v>
+      </c>
+      <c r="M61" t="s" s="579">
+        <v>624</v>
+      </c>
+      <c r="N61" t="s" s="579">
+        <v>590</v>
+      </c>
+      <c r="O61" t="s" s="580">
+        <v>594</v>
+      </c>
+      <c r="P61" t="s" s="580">
+        <v>590</v>
+      </c>
+      <c r="Q61" t="s" s="581">
+        <v>600</v>
+      </c>
+      <c r="R61" t="s" s="581">
+        <v>590</v>
+      </c>
+      <c r="S61" t="s" s="582">
+        <v>601</v>
+      </c>
+      <c r="T61" t="s" s="582">
+        <v>590</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C62" t="s">
+        <v>588</v>
+      </c>
+      <c r="D62" t="s">
+        <v>623</v>
+      </c>
+      <c r="E62" t="s">
         <v>587</v>
       </c>
-      <c r="D62" t="s">
-        <v>621</v>
-      </c>
-      <c r="E62" t="s">
-        <v>586</v>
-      </c>
       <c r="F62" t="s">
-        <v>586</v>
-      </c>
-      <c r="G62" t="s">
+        <v>587</v>
+      </c>
+      <c r="G62" t="s" s="583">
         <v>332</v>
       </c>
-      <c r="H62" t="s">
-        <v>332</v>
-      </c>
-      <c r="I62" t="s">
-        <v>589</v>
-      </c>
-      <c r="J62" t="s">
-        <v>589</v>
-      </c>
-      <c r="K62" t="s">
-        <v>590</v>
-      </c>
-      <c r="L62" t="s">
-        <v>590</v>
-      </c>
-      <c r="M62" t="s">
-        <v>622</v>
-      </c>
-      <c r="N62" t="s">
-        <v>622</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="H62" t="s" s="583">
+        <v>590</v>
+      </c>
+      <c r="I62" t="s" s="584">
+        <v>591</v>
+      </c>
+      <c r="J62" t="s" s="584">
+        <v>590</v>
+      </c>
+      <c r="K62" t="s" s="585">
         <v>592</v>
       </c>
-      <c r="P62" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>600</v>
-      </c>
-      <c r="R62" t="s">
-        <v>600</v>
-      </c>
-      <c r="S62" t="s">
+      <c r="L62" t="s" s="585">
+        <v>590</v>
+      </c>
+      <c r="M62" t="s" s="586">
+        <v>624</v>
+      </c>
+      <c r="N62" t="s" s="586">
+        <v>590</v>
+      </c>
+      <c r="O62" t="s" s="587">
         <v>594</v>
       </c>
-      <c r="T62" t="s">
-        <v>594</v>
+      <c r="P62" t="s" s="587">
+        <v>590</v>
+      </c>
+      <c r="Q62" t="s" s="588">
+        <v>602</v>
+      </c>
+      <c r="R62" t="s" s="588">
+        <v>590</v>
+      </c>
+      <c r="S62" t="s" s="589">
+        <v>596</v>
+      </c>
+      <c r="T62" t="s" s="589">
+        <v>590</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C64" t="s">
+        <v>588</v>
+      </c>
+      <c r="D64" t="s">
+        <v>625</v>
+      </c>
+      <c r="E64" t="s">
         <v>587</v>
       </c>
-      <c r="D64" t="s">
-        <v>623</v>
-      </c>
-      <c r="E64" t="s">
-        <v>586</v>
-      </c>
       <c r="F64" t="s">
-        <v>588</v>
-      </c>
-      <c r="G64" t="s">
+        <v>589</v>
+      </c>
+      <c r="G64" t="s" s="590">
         <v>332</v>
       </c>
-      <c r="H64" t="s">
-        <v>332</v>
-      </c>
-      <c r="I64" t="s">
-        <v>624</v>
-      </c>
-      <c r="J64" t="s">
-        <v>624</v>
-      </c>
-      <c r="K64" t="s">
-        <v>625</v>
-      </c>
-      <c r="L64" t="s">
-        <v>625</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="H64" t="s" s="590">
+        <v>590</v>
+      </c>
+      <c r="I64" t="s" s="591">
         <v>626</v>
       </c>
-      <c r="N64" t="s">
-        <v>626</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="J64" t="s" s="591">
+        <v>590</v>
+      </c>
+      <c r="K64" t="s" s="592">
         <v>627</v>
       </c>
-      <c r="P64" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q64" t="s">
+      <c r="L64" t="s" s="592">
+        <v>590</v>
+      </c>
+      <c r="M64" t="s" s="593">
         <v>628</v>
       </c>
-      <c r="R64" t="s">
-        <v>628</v>
-      </c>
-      <c r="S64" t="s">
-        <v>594</v>
-      </c>
-      <c r="T64" t="s">
-        <v>594</v>
+      <c r="N64" t="s" s="593">
+        <v>590</v>
+      </c>
+      <c r="O64" t="s" s="594">
+        <v>629</v>
+      </c>
+      <c r="P64" t="s" s="594">
+        <v>590</v>
+      </c>
+      <c r="Q64" t="s" s="595">
+        <v>630</v>
+      </c>
+      <c r="R64" t="s" s="595">
+        <v>590</v>
+      </c>
+      <c r="S64" t="s" s="596">
+        <v>596</v>
+      </c>
+      <c r="T64" t="s" s="596">
+        <v>590</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C65" t="s">
+        <v>588</v>
+      </c>
+      <c r="D65" t="s">
+        <v>625</v>
+      </c>
+      <c r="E65" t="s">
         <v>587</v>
       </c>
-      <c r="D65" t="s">
-        <v>623</v>
-      </c>
-      <c r="E65" t="s">
-        <v>586</v>
-      </c>
       <c r="F65" t="s">
-        <v>595</v>
-      </c>
-      <c r="G65" t="s">
+        <v>597</v>
+      </c>
+      <c r="G65" t="s" s="597">
         <v>332</v>
       </c>
-      <c r="H65" t="s">
-        <v>332</v>
-      </c>
-      <c r="I65" t="s">
-        <v>624</v>
-      </c>
-      <c r="J65" t="s">
-        <v>624</v>
-      </c>
-      <c r="K65" t="s">
-        <v>625</v>
-      </c>
-      <c r="L65" t="s">
-        <v>625</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="H65" t="s" s="597">
+        <v>590</v>
+      </c>
+      <c r="I65" t="s" s="598">
         <v>626</v>
       </c>
-      <c r="N65" t="s">
-        <v>626</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="J65" t="s" s="598">
+        <v>590</v>
+      </c>
+      <c r="K65" t="s" s="599">
         <v>627</v>
       </c>
-      <c r="P65" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q65" t="s">
+      <c r="L65" t="s" s="599">
+        <v>590</v>
+      </c>
+      <c r="M65" t="s" s="600">
+        <v>628</v>
+      </c>
+      <c r="N65" t="s" s="600">
+        <v>590</v>
+      </c>
+      <c r="O65" t="s" s="601">
         <v>629</v>
       </c>
-      <c r="R65" t="s">
-        <v>629</v>
-      </c>
-      <c r="S65" t="s">
-        <v>594</v>
-      </c>
-      <c r="T65" t="s">
-        <v>594</v>
+      <c r="P65" t="s" s="601">
+        <v>590</v>
+      </c>
+      <c r="Q65" t="s" s="602">
+        <v>631</v>
+      </c>
+      <c r="R65" t="s" s="602">
+        <v>590</v>
+      </c>
+      <c r="S65" t="s" s="603">
+        <v>596</v>
+      </c>
+      <c r="T65" t="s" s="603">
+        <v>590</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C66" t="s">
+        <v>588</v>
+      </c>
+      <c r="D66" t="s">
+        <v>625</v>
+      </c>
+      <c r="E66" t="s">
         <v>587</v>
       </c>
-      <c r="D66" t="s">
-        <v>623</v>
-      </c>
-      <c r="E66" t="s">
-        <v>586</v>
-      </c>
       <c r="F66" t="s">
-        <v>597</v>
-      </c>
-      <c r="G66" t="s">
+        <v>599</v>
+      </c>
+      <c r="G66" t="s" s="604">
         <v>332</v>
       </c>
-      <c r="H66" t="s">
-        <v>332</v>
-      </c>
-      <c r="I66" t="s">
-        <v>624</v>
-      </c>
-      <c r="J66" t="s">
-        <v>624</v>
-      </c>
-      <c r="K66" t="s">
-        <v>625</v>
-      </c>
-      <c r="L66" t="s">
-        <v>625</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="H66" t="s" s="604">
+        <v>590</v>
+      </c>
+      <c r="I66" t="s" s="605">
         <v>626</v>
       </c>
-      <c r="N66" t="s">
-        <v>626</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="J66" t="s" s="605">
+        <v>590</v>
+      </c>
+      <c r="K66" t="s" s="606">
         <v>627</v>
       </c>
-      <c r="P66" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q66" t="s">
+      <c r="L66" t="s" s="606">
+        <v>590</v>
+      </c>
+      <c r="M66" t="s" s="607">
+        <v>628</v>
+      </c>
+      <c r="N66" t="s" s="607">
+        <v>590</v>
+      </c>
+      <c r="O66" t="s" s="608">
+        <v>629</v>
+      </c>
+      <c r="P66" t="s" s="608">
+        <v>590</v>
+      </c>
+      <c r="Q66" t="s" s="609">
         <v>86</v>
       </c>
-      <c r="R66" t="s">
-        <v>86</v>
-      </c>
-      <c r="S66" t="s">
-        <v>599</v>
-      </c>
-      <c r="T66" t="s">
-        <v>599</v>
+      <c r="R66" t="s" s="609">
+        <v>590</v>
+      </c>
+      <c r="S66" t="s" s="610">
+        <v>601</v>
+      </c>
+      <c r="T66" t="s" s="610">
+        <v>590</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C67" t="s">
+        <v>588</v>
+      </c>
+      <c r="D67" t="s">
+        <v>625</v>
+      </c>
+      <c r="E67" t="s">
         <v>587</v>
       </c>
-      <c r="D67" t="s">
-        <v>623</v>
-      </c>
-      <c r="E67" t="s">
-        <v>586</v>
-      </c>
       <c r="F67" t="s">
-        <v>586</v>
-      </c>
-      <c r="G67" t="s">
+        <v>587</v>
+      </c>
+      <c r="G67" t="s" s="611">
         <v>332</v>
       </c>
-      <c r="H67" t="s">
-        <v>332</v>
-      </c>
-      <c r="I67" t="s">
-        <v>624</v>
-      </c>
-      <c r="J67" t="s">
-        <v>624</v>
-      </c>
-      <c r="K67" t="s">
-        <v>625</v>
-      </c>
-      <c r="L67" t="s">
-        <v>625</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="H67" t="s" s="611">
+        <v>590</v>
+      </c>
+      <c r="I67" t="s" s="612">
         <v>626</v>
       </c>
-      <c r="N67" t="s">
-        <v>626</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="J67" t="s" s="612">
+        <v>590</v>
+      </c>
+      <c r="K67" t="s" s="613">
         <v>627</v>
       </c>
-      <c r="P67" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>630</v>
-      </c>
-      <c r="R67" t="s">
-        <v>630</v>
-      </c>
-      <c r="S67" t="s">
-        <v>594</v>
-      </c>
-      <c r="T67" t="s">
-        <v>594</v>
+      <c r="L67" t="s" s="613">
+        <v>590</v>
+      </c>
+      <c r="M67" t="s" s="614">
+        <v>628</v>
+      </c>
+      <c r="N67" t="s" s="614">
+        <v>590</v>
+      </c>
+      <c r="O67" t="s" s="615">
+        <v>629</v>
+      </c>
+      <c r="P67" t="s" s="615">
+        <v>590</v>
+      </c>
+      <c r="Q67" t="s" s="616">
+        <v>632</v>
+      </c>
+      <c r="R67" t="s" s="616">
+        <v>590</v>
+      </c>
+      <c r="S67" t="s" s="617">
+        <v>596</v>
+      </c>
+      <c r="T67" t="s" s="617">
+        <v>590</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C69" t="s">
+        <v>588</v>
+      </c>
+      <c r="D69" t="s">
+        <v>633</v>
+      </c>
+      <c r="E69" t="s">
         <v>587</v>
       </c>
-      <c r="D69" t="s">
-        <v>631</v>
-      </c>
-      <c r="E69" t="s">
-        <v>586</v>
-      </c>
       <c r="F69" t="s">
-        <v>588</v>
-      </c>
-      <c r="G69" t="s">
+        <v>589</v>
+      </c>
+      <c r="G69" t="s" s="618">
         <v>332</v>
       </c>
-      <c r="H69" t="s">
-        <v>332</v>
-      </c>
-      <c r="I69" t="s">
-        <v>624</v>
-      </c>
-      <c r="J69" t="s">
-        <v>624</v>
-      </c>
-      <c r="K69" t="s">
-        <v>625</v>
-      </c>
-      <c r="L69" t="s">
-        <v>625</v>
-      </c>
-      <c r="M69" t="s">
-        <v>632</v>
-      </c>
-      <c r="N69" t="s">
-        <v>632</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="H69" t="s" s="618">
+        <v>590</v>
+      </c>
+      <c r="I69" t="s" s="619">
+        <v>626</v>
+      </c>
+      <c r="J69" t="s" s="619">
+        <v>590</v>
+      </c>
+      <c r="K69" t="s" s="620">
         <v>627</v>
       </c>
-      <c r="P69" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>628</v>
-      </c>
-      <c r="R69" t="s">
-        <v>628</v>
-      </c>
-      <c r="S69" t="s">
-        <v>594</v>
-      </c>
-      <c r="T69" t="s">
-        <v>594</v>
+      <c r="L69" t="s" s="620">
+        <v>590</v>
+      </c>
+      <c r="M69" t="s" s="621">
+        <v>634</v>
+      </c>
+      <c r="N69" t="s" s="621">
+        <v>590</v>
+      </c>
+      <c r="O69" t="s" s="622">
+        <v>629</v>
+      </c>
+      <c r="P69" t="s" s="622">
+        <v>590</v>
+      </c>
+      <c r="Q69" t="s" s="623">
+        <v>630</v>
+      </c>
+      <c r="R69" t="s" s="623">
+        <v>590</v>
+      </c>
+      <c r="S69" t="s" s="624">
+        <v>596</v>
+      </c>
+      <c r="T69" t="s" s="624">
+        <v>590</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C70" t="s">
+        <v>588</v>
+      </c>
+      <c r="D70" t="s">
+        <v>633</v>
+      </c>
+      <c r="E70" t="s">
         <v>587</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
+        <v>597</v>
+      </c>
+      <c r="G70" t="s" s="625">
+        <v>332</v>
+      </c>
+      <c r="H70" t="s" s="625">
+        <v>590</v>
+      </c>
+      <c r="I70" t="s" s="626">
+        <v>626</v>
+      </c>
+      <c r="J70" t="s" s="626">
+        <v>590</v>
+      </c>
+      <c r="K70" t="s" s="627">
+        <v>627</v>
+      </c>
+      <c r="L70" t="s" s="627">
+        <v>590</v>
+      </c>
+      <c r="M70" t="s" s="628">
+        <v>634</v>
+      </c>
+      <c r="N70" t="s" s="628">
+        <v>590</v>
+      </c>
+      <c r="O70" t="s" s="629">
+        <v>629</v>
+      </c>
+      <c r="P70" t="s" s="629">
+        <v>590</v>
+      </c>
+      <c r="Q70" t="s" s="630">
         <v>631</v>
       </c>
-      <c r="E70" t="s">
-        <v>586</v>
-      </c>
-      <c r="F70" t="s">
-        <v>595</v>
-      </c>
-      <c r="G70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H70" t="s">
-        <v>332</v>
-      </c>
-      <c r="I70" t="s">
-        <v>624</v>
-      </c>
-      <c r="J70" t="s">
-        <v>624</v>
-      </c>
-      <c r="K70" t="s">
-        <v>625</v>
-      </c>
-      <c r="L70" t="s">
-        <v>625</v>
-      </c>
-      <c r="M70" t="s">
-        <v>632</v>
-      </c>
-      <c r="N70" t="s">
-        <v>632</v>
-      </c>
-      <c r="O70" t="s">
-        <v>627</v>
-      </c>
-      <c r="P70" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>629</v>
-      </c>
-      <c r="R70" t="s">
-        <v>629</v>
-      </c>
-      <c r="S70" t="s">
-        <v>594</v>
-      </c>
-      <c r="T70" t="s">
-        <v>594</v>
+      <c r="R70" t="s" s="630">
+        <v>590</v>
+      </c>
+      <c r="S70" t="s" s="631">
+        <v>596</v>
+      </c>
+      <c r="T70" t="s" s="631">
+        <v>590</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C71" t="s">
+        <v>588</v>
+      </c>
+      <c r="D71" t="s">
+        <v>633</v>
+      </c>
+      <c r="E71" t="s">
         <v>587</v>
       </c>
-      <c r="D71" t="s">
-        <v>631</v>
-      </c>
-      <c r="E71" t="s">
-        <v>586</v>
-      </c>
       <c r="F71" t="s">
-        <v>597</v>
-      </c>
-      <c r="G71" t="s">
+        <v>599</v>
+      </c>
+      <c r="G71" t="s" s="632">
         <v>332</v>
       </c>
-      <c r="H71" t="s">
-        <v>332</v>
-      </c>
-      <c r="I71" t="s">
-        <v>624</v>
-      </c>
-      <c r="J71" t="s">
-        <v>624</v>
-      </c>
-      <c r="K71" t="s">
-        <v>625</v>
-      </c>
-      <c r="L71" t="s">
-        <v>625</v>
-      </c>
-      <c r="M71" t="s">
-        <v>632</v>
-      </c>
-      <c r="N71" t="s">
-        <v>632</v>
-      </c>
-      <c r="O71" t="s">
+      <c r="H71" t="s" s="632">
+        <v>590</v>
+      </c>
+      <c r="I71" t="s" s="633">
+        <v>626</v>
+      </c>
+      <c r="J71" t="s" s="633">
+        <v>590</v>
+      </c>
+      <c r="K71" t="s" s="634">
         <v>627</v>
       </c>
-      <c r="P71" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q71" t="s">
+      <c r="L71" t="s" s="634">
+        <v>590</v>
+      </c>
+      <c r="M71" t="s" s="635">
+        <v>634</v>
+      </c>
+      <c r="N71" t="s" s="635">
+        <v>590</v>
+      </c>
+      <c r="O71" t="s" s="636">
+        <v>629</v>
+      </c>
+      <c r="P71" t="s" s="636">
+        <v>590</v>
+      </c>
+      <c r="Q71" t="s" s="637">
         <v>86</v>
       </c>
-      <c r="R71" t="s">
-        <v>86</v>
-      </c>
-      <c r="S71" t="s">
-        <v>599</v>
-      </c>
-      <c r="T71" t="s">
-        <v>599</v>
+      <c r="R71" t="s" s="637">
+        <v>590</v>
+      </c>
+      <c r="S71" t="s" s="638">
+        <v>601</v>
+      </c>
+      <c r="T71" t="s" s="638">
+        <v>590</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C72" t="s">
+        <v>588</v>
+      </c>
+      <c r="D72" t="s">
+        <v>633</v>
+      </c>
+      <c r="E72" t="s">
         <v>587</v>
       </c>
-      <c r="D72" t="s">
-        <v>631</v>
-      </c>
-      <c r="E72" t="s">
-        <v>586</v>
-      </c>
       <c r="F72" t="s">
-        <v>586</v>
-      </c>
-      <c r="G72" t="s">
+        <v>587</v>
+      </c>
+      <c r="G72" t="s" s="639">
         <v>332</v>
       </c>
-      <c r="H72" t="s">
-        <v>332</v>
-      </c>
-      <c r="I72" t="s">
-        <v>624</v>
-      </c>
-      <c r="J72" t="s">
-        <v>624</v>
-      </c>
-      <c r="K72" t="s">
-        <v>625</v>
-      </c>
-      <c r="L72" t="s">
-        <v>625</v>
-      </c>
-      <c r="M72" t="s">
+      <c r="H72" t="s" s="639">
+        <v>590</v>
+      </c>
+      <c r="I72" t="s" s="640">
+        <v>626</v>
+      </c>
+      <c r="J72" t="s" s="640">
+        <v>590</v>
+      </c>
+      <c r="K72" t="s" s="641">
+        <v>627</v>
+      </c>
+      <c r="L72" t="s" s="641">
+        <v>590</v>
+      </c>
+      <c r="M72" t="s" s="642">
+        <v>634</v>
+      </c>
+      <c r="N72" t="s" s="642">
+        <v>590</v>
+      </c>
+      <c r="O72" t="s" s="643">
+        <v>629</v>
+      </c>
+      <c r="P72" t="s" s="643">
+        <v>590</v>
+      </c>
+      <c r="Q72" t="s" s="644">
         <v>632</v>
       </c>
-      <c r="N72" t="s">
-        <v>632</v>
-      </c>
-      <c r="O72" t="s">
-        <v>627</v>
-      </c>
-      <c r="P72" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>630</v>
-      </c>
-      <c r="R72" t="s">
-        <v>630</v>
-      </c>
-      <c r="S72" t="s">
-        <v>594</v>
-      </c>
-      <c r="T72" t="s">
-        <v>594</v>
+      <c r="R72" t="s" s="644">
+        <v>590</v>
+      </c>
+      <c r="S72" t="s" s="645">
+        <v>596</v>
+      </c>
+      <c r="T72" t="s" s="645">
+        <v>590</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C74" t="s">
+        <v>588</v>
+      </c>
+      <c r="D74" t="s">
+        <v>635</v>
+      </c>
+      <c r="E74" t="s">
         <v>587</v>
       </c>
-      <c r="D74" t="s">
-        <v>633</v>
-      </c>
-      <c r="E74" t="s">
-        <v>586</v>
-      </c>
       <c r="F74" t="s">
-        <v>588</v>
-      </c>
-      <c r="G74" t="s">
+        <v>589</v>
+      </c>
+      <c r="G74" t="s" s="646">
         <v>332</v>
       </c>
-      <c r="H74" t="s">
-        <v>332</v>
-      </c>
-      <c r="I74" t="s">
-        <v>624</v>
-      </c>
-      <c r="J74" t="s">
-        <v>624</v>
-      </c>
-      <c r="K74" t="s">
-        <v>625</v>
-      </c>
-      <c r="L74" t="s">
-        <v>625</v>
-      </c>
-      <c r="M74" t="s">
-        <v>634</v>
-      </c>
-      <c r="N74" t="s">
-        <v>634</v>
-      </c>
-      <c r="O74" t="s">
+      <c r="H74" t="s" s="646">
+        <v>590</v>
+      </c>
+      <c r="I74" t="s" s="647">
+        <v>626</v>
+      </c>
+      <c r="J74" t="s" s="647">
+        <v>590</v>
+      </c>
+      <c r="K74" t="s" s="648">
         <v>627</v>
       </c>
-      <c r="P74" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>628</v>
-      </c>
-      <c r="R74" t="s">
-        <v>628</v>
-      </c>
-      <c r="S74" t="s">
-        <v>594</v>
-      </c>
-      <c r="T74" t="s">
-        <v>594</v>
+      <c r="L74" t="s" s="648">
+        <v>590</v>
+      </c>
+      <c r="M74" t="s" s="649">
+        <v>636</v>
+      </c>
+      <c r="N74" t="s" s="649">
+        <v>590</v>
+      </c>
+      <c r="O74" t="s" s="650">
+        <v>629</v>
+      </c>
+      <c r="P74" t="s" s="650">
+        <v>590</v>
+      </c>
+      <c r="Q74" t="s" s="651">
+        <v>630</v>
+      </c>
+      <c r="R74" t="s" s="651">
+        <v>590</v>
+      </c>
+      <c r="S74" t="s" s="652">
+        <v>596</v>
+      </c>
+      <c r="T74" t="s" s="652">
+        <v>590</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D75" t="s">
+        <v>635</v>
+      </c>
+      <c r="E75" t="s">
         <v>587</v>
       </c>
-      <c r="D75" t="s">
-        <v>633</v>
-      </c>
-      <c r="E75" t="s">
-        <v>586</v>
-      </c>
       <c r="F75" t="s">
-        <v>595</v>
-      </c>
-      <c r="G75" t="s">
+        <v>597</v>
+      </c>
+      <c r="G75" t="s" s="653">
         <v>332</v>
       </c>
-      <c r="H75" t="s">
-        <v>332</v>
-      </c>
-      <c r="I75" t="s">
-        <v>624</v>
-      </c>
-      <c r="J75" t="s">
-        <v>624</v>
-      </c>
-      <c r="K75" t="s">
-        <v>625</v>
-      </c>
-      <c r="L75" t="s">
-        <v>625</v>
-      </c>
-      <c r="M75" t="s">
-        <v>634</v>
-      </c>
-      <c r="N75" t="s">
-        <v>634</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="H75" t="s" s="653">
+        <v>590</v>
+      </c>
+      <c r="I75" t="s" s="654">
+        <v>626</v>
+      </c>
+      <c r="J75" t="s" s="654">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s" s="655">
         <v>627</v>
       </c>
-      <c r="P75" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q75" t="s">
+      <c r="L75" t="s" s="655">
+        <v>590</v>
+      </c>
+      <c r="M75" t="s" s="656">
+        <v>636</v>
+      </c>
+      <c r="N75" t="s" s="656">
+        <v>590</v>
+      </c>
+      <c r="O75" t="s" s="657">
         <v>629</v>
       </c>
-      <c r="R75" t="s">
-        <v>629</v>
-      </c>
-      <c r="S75" t="s">
-        <v>594</v>
-      </c>
-      <c r="T75" t="s">
-        <v>594</v>
+      <c r="P75" t="s" s="657">
+        <v>590</v>
+      </c>
+      <c r="Q75" t="s" s="658">
+        <v>631</v>
+      </c>
+      <c r="R75" t="s" s="658">
+        <v>590</v>
+      </c>
+      <c r="S75" t="s" s="659">
+        <v>596</v>
+      </c>
+      <c r="T75" t="s" s="659">
+        <v>590</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C76" t="s">
+        <v>588</v>
+      </c>
+      <c r="D76" t="s">
+        <v>635</v>
+      </c>
+      <c r="E76" t="s">
         <v>587</v>
       </c>
-      <c r="D76" t="s">
-        <v>633</v>
-      </c>
-      <c r="E76" t="s">
-        <v>586</v>
-      </c>
       <c r="F76" t="s">
-        <v>597</v>
-      </c>
-      <c r="G76" t="s">
+        <v>599</v>
+      </c>
+      <c r="G76" t="s" s="660">
         <v>332</v>
       </c>
-      <c r="H76" t="s">
-        <v>332</v>
-      </c>
-      <c r="I76" t="s">
-        <v>624</v>
-      </c>
-      <c r="J76" t="s">
-        <v>624</v>
-      </c>
-      <c r="K76" t="s">
-        <v>625</v>
-      </c>
-      <c r="L76" t="s">
-        <v>625</v>
-      </c>
-      <c r="M76" t="s">
-        <v>634</v>
-      </c>
-      <c r="N76" t="s">
-        <v>634</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="H76" t="s" s="660">
+        <v>590</v>
+      </c>
+      <c r="I76" t="s" s="661">
+        <v>626</v>
+      </c>
+      <c r="J76" t="s" s="661">
+        <v>590</v>
+      </c>
+      <c r="K76" t="s" s="662">
         <v>627</v>
       </c>
-      <c r="P76" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="L76" t="s" s="662">
+        <v>590</v>
+      </c>
+      <c r="M76" t="s" s="663">
+        <v>636</v>
+      </c>
+      <c r="N76" t="s" s="663">
+        <v>590</v>
+      </c>
+      <c r="O76" t="s" s="664">
+        <v>629</v>
+      </c>
+      <c r="P76" t="s" s="664">
+        <v>590</v>
+      </c>
+      <c r="Q76" t="s" s="665">
         <v>86</v>
       </c>
-      <c r="R76" t="s">
-        <v>86</v>
-      </c>
-      <c r="S76" t="s">
-        <v>599</v>
-      </c>
-      <c r="T76" t="s">
-        <v>599</v>
+      <c r="R76" t="s" s="665">
+        <v>590</v>
+      </c>
+      <c r="S76" t="s" s="666">
+        <v>601</v>
+      </c>
+      <c r="T76" t="s" s="666">
+        <v>590</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C77" t="s">
+        <v>588</v>
+      </c>
+      <c r="D77" t="s">
+        <v>635</v>
+      </c>
+      <c r="E77" t="s">
         <v>587</v>
       </c>
-      <c r="D77" t="s">
-        <v>633</v>
-      </c>
-      <c r="E77" t="s">
-        <v>586</v>
-      </c>
       <c r="F77" t="s">
-        <v>586</v>
-      </c>
-      <c r="G77" t="s">
+        <v>587</v>
+      </c>
+      <c r="G77" t="s" s="667">
         <v>332</v>
       </c>
-      <c r="H77" t="s">
-        <v>332</v>
-      </c>
-      <c r="I77" t="s">
-        <v>624</v>
-      </c>
-      <c r="J77" t="s">
-        <v>624</v>
-      </c>
-      <c r="K77" t="s">
-        <v>625</v>
-      </c>
-      <c r="L77" t="s">
-        <v>625</v>
-      </c>
-      <c r="M77" t="s">
-        <v>634</v>
-      </c>
-      <c r="N77" t="s">
-        <v>634</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="H77" t="s" s="667">
+        <v>590</v>
+      </c>
+      <c r="I77" t="s" s="668">
+        <v>626</v>
+      </c>
+      <c r="J77" t="s" s="668">
+        <v>590</v>
+      </c>
+      <c r="K77" t="s" s="669">
         <v>627</v>
       </c>
-      <c r="P77" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>630</v>
-      </c>
-      <c r="R77" t="s">
-        <v>630</v>
-      </c>
-      <c r="S77" t="s">
-        <v>594</v>
-      </c>
-      <c r="T77" t="s">
-        <v>594</v>
+      <c r="L77" t="s" s="669">
+        <v>590</v>
+      </c>
+      <c r="M77" t="s" s="670">
+        <v>636</v>
+      </c>
+      <c r="N77" t="s" s="670">
+        <v>590</v>
+      </c>
+      <c r="O77" t="s" s="671">
+        <v>629</v>
+      </c>
+      <c r="P77" t="s" s="671">
+        <v>590</v>
+      </c>
+      <c r="Q77" t="s" s="672">
+        <v>632</v>
+      </c>
+      <c r="R77" t="s" s="672">
+        <v>590</v>
+      </c>
+      <c r="S77" t="s" s="673">
+        <v>596</v>
+      </c>
+      <c r="T77" t="s" s="673">
+        <v>590</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C79" t="s">
+        <v>588</v>
+      </c>
+      <c r="D79" t="s">
+        <v>637</v>
+      </c>
+      <c r="E79" t="s">
         <v>587</v>
       </c>
-      <c r="D79" t="s">
-        <v>635</v>
-      </c>
-      <c r="E79" t="s">
-        <v>586</v>
-      </c>
       <c r="F79" t="s">
-        <v>588</v>
-      </c>
-      <c r="G79" t="s">
+        <v>589</v>
+      </c>
+      <c r="G79" t="s" s="674">
         <v>332</v>
       </c>
-      <c r="H79" t="s">
-        <v>332</v>
-      </c>
-      <c r="I79" t="s">
-        <v>624</v>
-      </c>
-      <c r="J79" t="s">
-        <v>624</v>
-      </c>
-      <c r="K79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L79" t="s">
-        <v>625</v>
-      </c>
-      <c r="M79" t="s">
-        <v>636</v>
-      </c>
-      <c r="N79" t="s">
-        <v>636</v>
-      </c>
-      <c r="O79" t="s">
+      <c r="H79" t="s" s="674">
+        <v>590</v>
+      </c>
+      <c r="I79" t="s" s="675">
+        <v>626</v>
+      </c>
+      <c r="J79" t="s" s="675">
+        <v>590</v>
+      </c>
+      <c r="K79" t="s" s="676">
         <v>627</v>
       </c>
-      <c r="P79" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>628</v>
-      </c>
-      <c r="R79" t="s">
-        <v>628</v>
-      </c>
-      <c r="S79" t="s">
-        <v>594</v>
-      </c>
-      <c r="T79" t="s">
-        <v>594</v>
+      <c r="L79" t="s" s="676">
+        <v>590</v>
+      </c>
+      <c r="M79" t="s" s="677">
+        <v>638</v>
+      </c>
+      <c r="N79" t="s" s="677">
+        <v>590</v>
+      </c>
+      <c r="O79" t="s" s="678">
+        <v>629</v>
+      </c>
+      <c r="P79" t="s" s="678">
+        <v>590</v>
+      </c>
+      <c r="Q79" t="s" s="679">
+        <v>630</v>
+      </c>
+      <c r="R79" t="s" s="679">
+        <v>590</v>
+      </c>
+      <c r="S79" t="s" s="680">
+        <v>596</v>
+      </c>
+      <c r="T79" t="s" s="680">
+        <v>590</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C80" t="s">
+        <v>588</v>
+      </c>
+      <c r="D80" t="s">
+        <v>637</v>
+      </c>
+      <c r="E80" t="s">
         <v>587</v>
       </c>
-      <c r="D80" t="s">
-        <v>635</v>
-      </c>
-      <c r="E80" t="s">
-        <v>586</v>
-      </c>
       <c r="F80" t="s">
-        <v>595</v>
-      </c>
-      <c r="G80" t="s">
+        <v>597</v>
+      </c>
+      <c r="G80" t="s" s="681">
         <v>332</v>
       </c>
-      <c r="H80" t="s">
-        <v>332</v>
-      </c>
-      <c r="I80" t="s">
-        <v>624</v>
-      </c>
-      <c r="J80" t="s">
-        <v>624</v>
-      </c>
-      <c r="K80" t="s">
-        <v>625</v>
-      </c>
-      <c r="L80" t="s">
-        <v>625</v>
-      </c>
-      <c r="M80" t="s">
-        <v>636</v>
-      </c>
-      <c r="N80" t="s">
-        <v>636</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="H80" t="s" s="681">
+        <v>590</v>
+      </c>
+      <c r="I80" t="s" s="682">
+        <v>626</v>
+      </c>
+      <c r="J80" t="s" s="682">
+        <v>590</v>
+      </c>
+      <c r="K80" t="s" s="683">
         <v>627</v>
       </c>
-      <c r="P80" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q80" t="s">
+      <c r="L80" t="s" s="683">
+        <v>590</v>
+      </c>
+      <c r="M80" t="s" s="684">
+        <v>638</v>
+      </c>
+      <c r="N80" t="s" s="684">
+        <v>590</v>
+      </c>
+      <c r="O80" t="s" s="685">
         <v>629</v>
       </c>
-      <c r="R80" t="s">
-        <v>629</v>
-      </c>
-      <c r="S80" t="s">
-        <v>594</v>
-      </c>
-      <c r="T80" t="s">
-        <v>594</v>
+      <c r="P80" t="s" s="685">
+        <v>590</v>
+      </c>
+      <c r="Q80" t="s" s="686">
+        <v>631</v>
+      </c>
+      <c r="R80" t="s" s="686">
+        <v>590</v>
+      </c>
+      <c r="S80" t="s" s="687">
+        <v>596</v>
+      </c>
+      <c r="T80" t="s" s="687">
+        <v>590</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C81" t="s">
+        <v>588</v>
+      </c>
+      <c r="D81" t="s">
+        <v>637</v>
+      </c>
+      <c r="E81" t="s">
         <v>587</v>
       </c>
-      <c r="D81" t="s">
-        <v>635</v>
-      </c>
-      <c r="E81" t="s">
-        <v>586</v>
-      </c>
       <c r="F81" t="s">
-        <v>597</v>
-      </c>
-      <c r="G81" t="s">
+        <v>599</v>
+      </c>
+      <c r="G81" t="s" s="688">
         <v>332</v>
       </c>
-      <c r="H81" t="s">
-        <v>332</v>
-      </c>
-      <c r="I81" t="s">
-        <v>624</v>
-      </c>
-      <c r="J81" t="s">
-        <v>624</v>
-      </c>
-      <c r="K81" t="s">
-        <v>625</v>
-      </c>
-      <c r="L81" t="s">
-        <v>625</v>
-      </c>
-      <c r="M81" t="s">
-        <v>636</v>
-      </c>
-      <c r="N81" t="s">
-        <v>636</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="H81" t="s" s="688">
+        <v>590</v>
+      </c>
+      <c r="I81" t="s" s="689">
+        <v>626</v>
+      </c>
+      <c r="J81" t="s" s="689">
+        <v>590</v>
+      </c>
+      <c r="K81" t="s" s="690">
         <v>627</v>
       </c>
-      <c r="P81" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q81" t="s">
+      <c r="L81" t="s" s="690">
+        <v>590</v>
+      </c>
+      <c r="M81" t="s" s="691">
+        <v>638</v>
+      </c>
+      <c r="N81" t="s" s="691">
+        <v>590</v>
+      </c>
+      <c r="O81" t="s" s="692">
+        <v>629</v>
+      </c>
+      <c r="P81" t="s" s="692">
+        <v>590</v>
+      </c>
+      <c r="Q81" t="s" s="693">
         <v>86</v>
       </c>
-      <c r="R81" t="s">
-        <v>86</v>
-      </c>
-      <c r="S81" t="s">
-        <v>599</v>
-      </c>
-      <c r="T81" t="s">
-        <v>599</v>
+      <c r="R81" t="s" s="693">
+        <v>590</v>
+      </c>
+      <c r="S81" t="s" s="694">
+        <v>601</v>
+      </c>
+      <c r="T81" t="s" s="694">
+        <v>590</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C82" t="s">
+        <v>588</v>
+      </c>
+      <c r="D82" t="s">
+        <v>637</v>
+      </c>
+      <c r="E82" t="s">
         <v>587</v>
       </c>
-      <c r="D82" t="s">
-        <v>635</v>
-      </c>
-      <c r="E82" t="s">
-        <v>586</v>
-      </c>
       <c r="F82" t="s">
-        <v>586</v>
-      </c>
-      <c r="G82" t="s">
+        <v>587</v>
+      </c>
+      <c r="G82" t="s" s="695">
         <v>332</v>
       </c>
-      <c r="H82" t="s">
-        <v>332</v>
-      </c>
-      <c r="I82" t="s">
-        <v>624</v>
-      </c>
-      <c r="J82" t="s">
-        <v>624</v>
-      </c>
-      <c r="K82" t="s">
-        <v>625</v>
-      </c>
-      <c r="L82" t="s">
-        <v>625</v>
-      </c>
-      <c r="M82" t="s">
-        <v>636</v>
-      </c>
-      <c r="N82" t="s">
-        <v>636</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="H82" t="s" s="695">
+        <v>590</v>
+      </c>
+      <c r="I82" t="s" s="696">
+        <v>626</v>
+      </c>
+      <c r="J82" t="s" s="696">
+        <v>590</v>
+      </c>
+      <c r="K82" t="s" s="697">
         <v>627</v>
       </c>
-      <c r="P82" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>630</v>
-      </c>
-      <c r="R82" t="s">
-        <v>630</v>
-      </c>
-      <c r="S82" t="s">
-        <v>594</v>
-      </c>
-      <c r="T82" t="s">
-        <v>594</v>
+      <c r="L82" t="s" s="697">
+        <v>590</v>
+      </c>
+      <c r="M82" t="s" s="698">
+        <v>638</v>
+      </c>
+      <c r="N82" t="s" s="698">
+        <v>590</v>
+      </c>
+      <c r="O82" t="s" s="699">
+        <v>629</v>
+      </c>
+      <c r="P82" t="s" s="699">
+        <v>590</v>
+      </c>
+      <c r="Q82" t="s" s="700">
+        <v>632</v>
+      </c>
+      <c r="R82" t="s" s="700">
+        <v>590</v>
+      </c>
+      <c r="S82" t="s" s="701">
+        <v>596</v>
+      </c>
+      <c r="T82" t="s" s="701">
+        <v>590</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C84" t="s">
+        <v>588</v>
+      </c>
+      <c r="D84" t="s">
+        <v>639</v>
+      </c>
+      <c r="E84" t="s">
         <v>587</v>
       </c>
-      <c r="D84" t="s">
-        <v>637</v>
-      </c>
-      <c r="E84" t="s">
-        <v>586</v>
-      </c>
       <c r="F84" t="s">
-        <v>588</v>
-      </c>
-      <c r="G84" t="s">
+        <v>589</v>
+      </c>
+      <c r="G84" t="s" s="702">
         <v>332</v>
       </c>
-      <c r="H84" t="s">
-        <v>332</v>
-      </c>
-      <c r="I84" t="s">
-        <v>624</v>
-      </c>
-      <c r="J84" t="s">
-        <v>624</v>
-      </c>
-      <c r="K84" t="s">
-        <v>625</v>
-      </c>
-      <c r="L84" t="s">
-        <v>625</v>
-      </c>
-      <c r="M84" t="s">
-        <v>638</v>
-      </c>
-      <c r="N84" t="s">
-        <v>638</v>
-      </c>
-      <c r="O84" t="s">
+      <c r="H84" t="s" s="702">
+        <v>590</v>
+      </c>
+      <c r="I84" t="s" s="703">
+        <v>626</v>
+      </c>
+      <c r="J84" t="s" s="703">
+        <v>590</v>
+      </c>
+      <c r="K84" t="s" s="704">
         <v>627</v>
       </c>
-      <c r="P84" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>628</v>
-      </c>
-      <c r="R84" t="s">
-        <v>628</v>
-      </c>
-      <c r="S84" t="s">
-        <v>594</v>
-      </c>
-      <c r="T84" t="s">
-        <v>594</v>
+      <c r="L84" t="s" s="704">
+        <v>590</v>
+      </c>
+      <c r="M84" t="s" s="705">
+        <v>640</v>
+      </c>
+      <c r="N84" t="s" s="705">
+        <v>590</v>
+      </c>
+      <c r="O84" t="s" s="706">
+        <v>629</v>
+      </c>
+      <c r="P84" t="s" s="706">
+        <v>590</v>
+      </c>
+      <c r="Q84" t="s" s="707">
+        <v>630</v>
+      </c>
+      <c r="R84" t="s" s="707">
+        <v>590</v>
+      </c>
+      <c r="S84" t="s" s="708">
+        <v>596</v>
+      </c>
+      <c r="T84" t="s" s="708">
+        <v>590</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C85" t="s">
+        <v>588</v>
+      </c>
+      <c r="D85" t="s">
+        <v>639</v>
+      </c>
+      <c r="E85" t="s">
         <v>587</v>
       </c>
-      <c r="D85" t="s">
-        <v>637</v>
-      </c>
-      <c r="E85" t="s">
-        <v>586</v>
-      </c>
       <c r="F85" t="s">
-        <v>595</v>
-      </c>
-      <c r="G85" t="s">
+        <v>597</v>
+      </c>
+      <c r="G85" t="s" s="709">
         <v>332</v>
       </c>
-      <c r="H85" t="s">
-        <v>332</v>
-      </c>
-      <c r="I85" t="s">
-        <v>624</v>
-      </c>
-      <c r="J85" t="s">
-        <v>624</v>
-      </c>
-      <c r="K85" t="s">
-        <v>625</v>
-      </c>
-      <c r="L85" t="s">
-        <v>625</v>
-      </c>
-      <c r="M85" t="s">
-        <v>638</v>
-      </c>
-      <c r="N85" t="s">
-        <v>638</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="H85" t="s" s="709">
+        <v>590</v>
+      </c>
+      <c r="I85" t="s" s="710">
+        <v>626</v>
+      </c>
+      <c r="J85" t="s" s="710">
+        <v>590</v>
+      </c>
+      <c r="K85" t="s" s="711">
         <v>627</v>
       </c>
-      <c r="P85" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q85" t="s">
+      <c r="L85" t="s" s="711">
+        <v>590</v>
+      </c>
+      <c r="M85" t="s" s="712">
+        <v>640</v>
+      </c>
+      <c r="N85" t="s" s="712">
+        <v>590</v>
+      </c>
+      <c r="O85" t="s" s="713">
         <v>629</v>
       </c>
-      <c r="R85" t="s">
-        <v>629</v>
-      </c>
-      <c r="S85" t="s">
-        <v>594</v>
-      </c>
-      <c r="T85" t="s">
-        <v>594</v>
+      <c r="P85" t="s" s="713">
+        <v>590</v>
+      </c>
+      <c r="Q85" t="s" s="714">
+        <v>631</v>
+      </c>
+      <c r="R85" t="s" s="714">
+        <v>590</v>
+      </c>
+      <c r="S85" t="s" s="715">
+        <v>596</v>
+      </c>
+      <c r="T85" t="s" s="715">
+        <v>590</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C86" t="s">
+        <v>588</v>
+      </c>
+      <c r="D86" t="s">
+        <v>639</v>
+      </c>
+      <c r="E86" t="s">
         <v>587</v>
       </c>
-      <c r="D86" t="s">
-        <v>637</v>
-      </c>
-      <c r="E86" t="s">
-        <v>586</v>
-      </c>
       <c r="F86" t="s">
-        <v>597</v>
-      </c>
-      <c r="G86" t="s">
+        <v>599</v>
+      </c>
+      <c r="G86" t="s" s="716">
         <v>332</v>
       </c>
-      <c r="H86" t="s">
-        <v>332</v>
-      </c>
-      <c r="I86" t="s">
-        <v>624</v>
-      </c>
-      <c r="J86" t="s">
-        <v>624</v>
-      </c>
-      <c r="K86" t="s">
-        <v>625</v>
-      </c>
-      <c r="L86" t="s">
-        <v>625</v>
-      </c>
-      <c r="M86" t="s">
-        <v>638</v>
-      </c>
-      <c r="N86" t="s">
-        <v>638</v>
-      </c>
-      <c r="O86" t="s">
+      <c r="H86" t="s" s="716">
+        <v>590</v>
+      </c>
+      <c r="I86" t="s" s="717">
+        <v>626</v>
+      </c>
+      <c r="J86" t="s" s="717">
+        <v>590</v>
+      </c>
+      <c r="K86" t="s" s="718">
         <v>627</v>
       </c>
-      <c r="P86" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q86" t="s">
+      <c r="L86" t="s" s="718">
+        <v>590</v>
+      </c>
+      <c r="M86" t="s" s="719">
+        <v>640</v>
+      </c>
+      <c r="N86" t="s" s="719">
+        <v>590</v>
+      </c>
+      <c r="O86" t="s" s="720">
+        <v>629</v>
+      </c>
+      <c r="P86" t="s" s="720">
+        <v>590</v>
+      </c>
+      <c r="Q86" t="s" s="721">
         <v>86</v>
       </c>
-      <c r="R86" t="s">
-        <v>86</v>
-      </c>
-      <c r="S86" t="s">
-        <v>599</v>
-      </c>
-      <c r="T86" t="s">
-        <v>599</v>
+      <c r="R86" t="s" s="721">
+        <v>590</v>
+      </c>
+      <c r="S86" t="s" s="722">
+        <v>601</v>
+      </c>
+      <c r="T86" t="s" s="722">
+        <v>590</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C87" t="s">
+        <v>588</v>
+      </c>
+      <c r="D87" t="s">
+        <v>639</v>
+      </c>
+      <c r="E87" t="s">
         <v>587</v>
       </c>
-      <c r="D87" t="s">
-        <v>637</v>
-      </c>
-      <c r="E87" t="s">
-        <v>586</v>
-      </c>
       <c r="F87" t="s">
-        <v>586</v>
-      </c>
-      <c r="G87" t="s">
+        <v>587</v>
+      </c>
+      <c r="G87" t="s" s="723">
         <v>332</v>
       </c>
-      <c r="H87" t="s">
-        <v>332</v>
-      </c>
-      <c r="I87" t="s">
-        <v>624</v>
-      </c>
-      <c r="J87" t="s">
-        <v>624</v>
-      </c>
-      <c r="K87" t="s">
-        <v>625</v>
-      </c>
-      <c r="L87" t="s">
-        <v>625</v>
-      </c>
-      <c r="M87" t="s">
-        <v>638</v>
-      </c>
-      <c r="N87" t="s">
-        <v>638</v>
-      </c>
-      <c r="O87" t="s">
+      <c r="H87" t="s" s="723">
+        <v>590</v>
+      </c>
+      <c r="I87" t="s" s="724">
+        <v>626</v>
+      </c>
+      <c r="J87" t="s" s="724">
+        <v>590</v>
+      </c>
+      <c r="K87" t="s" s="725">
         <v>627</v>
       </c>
-      <c r="P87" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>630</v>
-      </c>
-      <c r="R87" t="s">
-        <v>630</v>
-      </c>
-      <c r="S87" t="s">
-        <v>594</v>
-      </c>
-      <c r="T87" t="s">
-        <v>594</v>
+      <c r="L87" t="s" s="725">
+        <v>590</v>
+      </c>
+      <c r="M87" t="s" s="726">
+        <v>640</v>
+      </c>
+      <c r="N87" t="s" s="726">
+        <v>590</v>
+      </c>
+      <c r="O87" t="s" s="727">
+        <v>629</v>
+      </c>
+      <c r="P87" t="s" s="727">
+        <v>590</v>
+      </c>
+      <c r="Q87" t="s" s="728">
+        <v>632</v>
+      </c>
+      <c r="R87" t="s" s="728">
+        <v>590</v>
+      </c>
+      <c r="S87" t="s" s="729">
+        <v>596</v>
+      </c>
+      <c r="T87" t="s" s="729">
+        <v>590</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C89" t="s">
+        <v>588</v>
+      </c>
+      <c r="D89" t="s">
+        <v>641</v>
+      </c>
+      <c r="E89" t="s">
         <v>587</v>
       </c>
-      <c r="D89" t="s">
-        <v>639</v>
-      </c>
-      <c r="E89" t="s">
-        <v>586</v>
-      </c>
       <c r="F89" t="s">
-        <v>588</v>
-      </c>
-      <c r="G89" t="s">
+        <v>589</v>
+      </c>
+      <c r="G89" t="s" s="730">
         <v>332</v>
       </c>
-      <c r="H89" t="s">
-        <v>332</v>
-      </c>
-      <c r="I89" t="s">
-        <v>624</v>
-      </c>
-      <c r="J89" t="s">
-        <v>624</v>
-      </c>
-      <c r="K89" t="s">
-        <v>625</v>
-      </c>
-      <c r="L89" t="s">
-        <v>625</v>
-      </c>
-      <c r="M89" t="s">
-        <v>640</v>
-      </c>
-      <c r="N89" t="s">
-        <v>640</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="H89" t="s" s="730">
+        <v>590</v>
+      </c>
+      <c r="I89" t="s" s="731">
+        <v>626</v>
+      </c>
+      <c r="J89" t="s" s="731">
+        <v>590</v>
+      </c>
+      <c r="K89" t="s" s="732">
         <v>627</v>
       </c>
-      <c r="P89" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>628</v>
-      </c>
-      <c r="R89" t="s">
-        <v>628</v>
-      </c>
-      <c r="S89" t="s">
-        <v>594</v>
-      </c>
-      <c r="T89" t="s">
-        <v>594</v>
+      <c r="L89" t="s" s="732">
+        <v>590</v>
+      </c>
+      <c r="M89" t="s" s="733">
+        <v>642</v>
+      </c>
+      <c r="N89" t="s" s="733">
+        <v>590</v>
+      </c>
+      <c r="O89" t="s" s="734">
+        <v>629</v>
+      </c>
+      <c r="P89" t="s" s="734">
+        <v>590</v>
+      </c>
+      <c r="Q89" t="s" s="735">
+        <v>630</v>
+      </c>
+      <c r="R89" t="s" s="735">
+        <v>590</v>
+      </c>
+      <c r="S89" t="s" s="736">
+        <v>596</v>
+      </c>
+      <c r="T89" t="s" s="736">
+        <v>590</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C90" t="s">
+        <v>588</v>
+      </c>
+      <c r="D90" t="s">
+        <v>641</v>
+      </c>
+      <c r="E90" t="s">
         <v>587</v>
       </c>
-      <c r="D90" t="s">
-        <v>639</v>
-      </c>
-      <c r="E90" t="s">
-        <v>586</v>
-      </c>
       <c r="F90" t="s">
-        <v>595</v>
-      </c>
-      <c r="G90" t="s">
+        <v>597</v>
+      </c>
+      <c r="G90" t="s" s="737">
         <v>332</v>
       </c>
-      <c r="H90" t="s">
-        <v>332</v>
-      </c>
-      <c r="I90" t="s">
-        <v>624</v>
-      </c>
-      <c r="J90" t="s">
-        <v>624</v>
-      </c>
-      <c r="K90" t="s">
-        <v>625</v>
-      </c>
-      <c r="L90" t="s">
-        <v>625</v>
-      </c>
-      <c r="M90" t="s">
-        <v>640</v>
-      </c>
-      <c r="N90" t="s">
-        <v>640</v>
-      </c>
-      <c r="O90" t="s">
+      <c r="H90" t="s" s="737">
+        <v>590</v>
+      </c>
+      <c r="I90" t="s" s="738">
+        <v>626</v>
+      </c>
+      <c r="J90" t="s" s="738">
+        <v>590</v>
+      </c>
+      <c r="K90" t="s" s="739">
         <v>627</v>
       </c>
-      <c r="P90" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q90" t="s">
+      <c r="L90" t="s" s="739">
+        <v>590</v>
+      </c>
+      <c r="M90" t="s" s="740">
+        <v>642</v>
+      </c>
+      <c r="N90" t="s" s="740">
+        <v>590</v>
+      </c>
+      <c r="O90" t="s" s="741">
         <v>629</v>
       </c>
-      <c r="R90" t="s">
-        <v>629</v>
-      </c>
-      <c r="S90" t="s">
-        <v>594</v>
-      </c>
-      <c r="T90" t="s">
-        <v>594</v>
+      <c r="P90" t="s" s="741">
+        <v>590</v>
+      </c>
+      <c r="Q90" t="s" s="742">
+        <v>631</v>
+      </c>
+      <c r="R90" t="s" s="742">
+        <v>590</v>
+      </c>
+      <c r="S90" t="s" s="743">
+        <v>596</v>
+      </c>
+      <c r="T90" t="s" s="743">
+        <v>590</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C91" t="s">
+        <v>588</v>
+      </c>
+      <c r="D91" t="s">
+        <v>641</v>
+      </c>
+      <c r="E91" t="s">
         <v>587</v>
       </c>
-      <c r="D91" t="s">
-        <v>639</v>
-      </c>
-      <c r="E91" t="s">
-        <v>586</v>
-      </c>
       <c r="F91" t="s">
-        <v>597</v>
-      </c>
-      <c r="G91" t="s">
+        <v>599</v>
+      </c>
+      <c r="G91" t="s" s="744">
         <v>332</v>
       </c>
-      <c r="H91" t="s">
-        <v>332</v>
-      </c>
-      <c r="I91" t="s">
-        <v>624</v>
-      </c>
-      <c r="J91" t="s">
-        <v>624</v>
-      </c>
-      <c r="K91" t="s">
-        <v>625</v>
-      </c>
-      <c r="L91" t="s">
-        <v>625</v>
-      </c>
-      <c r="M91" t="s">
-        <v>640</v>
-      </c>
-      <c r="N91" t="s">
-        <v>640</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="H91" t="s" s="744">
+        <v>590</v>
+      </c>
+      <c r="I91" t="s" s="745">
+        <v>626</v>
+      </c>
+      <c r="J91" t="s" s="745">
+        <v>590</v>
+      </c>
+      <c r="K91" t="s" s="746">
         <v>627</v>
       </c>
-      <c r="P91" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q91" t="s">
+      <c r="L91" t="s" s="746">
+        <v>590</v>
+      </c>
+      <c r="M91" t="s" s="747">
+        <v>642</v>
+      </c>
+      <c r="N91" t="s" s="747">
+        <v>590</v>
+      </c>
+      <c r="O91" t="s" s="748">
+        <v>629</v>
+      </c>
+      <c r="P91" t="s" s="748">
+        <v>590</v>
+      </c>
+      <c r="Q91" t="s" s="749">
         <v>86</v>
       </c>
-      <c r="R91" t="s">
-        <v>86</v>
-      </c>
-      <c r="S91" t="s">
-        <v>599</v>
-      </c>
-      <c r="T91" t="s">
-        <v>599</v>
+      <c r="R91" t="s" s="749">
+        <v>590</v>
+      </c>
+      <c r="S91" t="s" s="750">
+        <v>601</v>
+      </c>
+      <c r="T91" t="s" s="750">
+        <v>590</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>22</v>
+        <v>585</v>
       </c>
       <c r="C92" t="s">
+        <v>588</v>
+      </c>
+      <c r="D92" t="s">
+        <v>641</v>
+      </c>
+      <c r="E92" t="s">
         <v>587</v>
       </c>
-      <c r="D92" t="s">
-        <v>639</v>
-      </c>
-      <c r="E92" t="s">
-        <v>586</v>
-      </c>
       <c r="F92" t="s">
-        <v>586</v>
-      </c>
-      <c r="G92" t="s">
+        <v>587</v>
+      </c>
+      <c r="G92" t="s" s="751">
         <v>332</v>
       </c>
-      <c r="H92" t="s">
-        <v>332</v>
-      </c>
-      <c r="I92" t="s">
-        <v>624</v>
-      </c>
-      <c r="J92" t="s">
-        <v>624</v>
-      </c>
-      <c r="K92" t="s">
-        <v>625</v>
-      </c>
-      <c r="L92" t="s">
-        <v>625</v>
-      </c>
-      <c r="M92" t="s">
-        <v>640</v>
-      </c>
-      <c r="N92" t="s">
-        <v>640</v>
-      </c>
-      <c r="O92" t="s">
+      <c r="H92" t="s" s="751">
+        <v>590</v>
+      </c>
+      <c r="I92" t="s" s="752">
+        <v>626</v>
+      </c>
+      <c r="J92" t="s" s="752">
+        <v>590</v>
+      </c>
+      <c r="K92" t="s" s="753">
         <v>627</v>
       </c>
-      <c r="P92" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>630</v>
-      </c>
-      <c r="R92" t="s">
-        <v>630</v>
-      </c>
-      <c r="S92" t="s">
-        <v>594</v>
-      </c>
-      <c r="T92" t="s">
-        <v>594</v>
+      <c r="L92" t="s" s="753">
+        <v>590</v>
+      </c>
+      <c r="M92" t="s" s="754">
+        <v>642</v>
+      </c>
+      <c r="N92" t="s" s="754">
+        <v>590</v>
+      </c>
+      <c r="O92" t="s" s="755">
+        <v>629</v>
+      </c>
+      <c r="P92" t="s" s="755">
+        <v>590</v>
+      </c>
+      <c r="Q92" t="s" s="756">
+        <v>632</v>
+      </c>
+      <c r="R92" t="s" s="756">
+        <v>590</v>
+      </c>
+      <c r="S92" t="s" s="757">
+        <v>596</v>
+      </c>
+      <c r="T92" t="s" s="757">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
